--- a/Code/Results/Cases/Case_0_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_44/res_line/pl_mw.xlsx
@@ -415,34 +415,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0008495455615715741</v>
+        <v>0.0008495455615671332</v>
       </c>
       <c r="D2">
-        <v>0.04619525800507063</v>
+        <v>0.04619525800527668</v>
       </c>
       <c r="E2">
-        <v>0.06561140037598889</v>
+        <v>0.06561140037597468</v>
       </c>
       <c r="F2">
-        <v>2.353061025299652</v>
+        <v>2.353061025299667</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.842215216573834</v>
+        <v>1.842215216573862</v>
       </c>
       <c r="I2">
-        <v>0.02361107025271636</v>
+        <v>0.02361107025273768</v>
       </c>
       <c r="J2">
-        <v>8.463529577575912</v>
+        <v>8.46352957757594</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>4.870114949000524</v>
+        <v>4.870114949000609</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,28 +453,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0003678153343695811</v>
+        <v>0.0003678153345756385</v>
       </c>
       <c r="D3">
-        <v>0.03570631848317163</v>
+        <v>0.03570631848324268</v>
       </c>
       <c r="E3">
-        <v>0.05857576387463936</v>
+        <v>0.05857576387463581</v>
       </c>
       <c r="F3">
-        <v>1.979006978028039</v>
+        <v>1.979006978028053</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.546063132664514</v>
+        <v>1.546063132664528</v>
       </c>
       <c r="I3">
-        <v>0.02171260705550893</v>
+        <v>0.02171260705548406</v>
       </c>
       <c r="J3">
-        <v>7.262083313527484</v>
+        <v>7.262083313527455</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,13 +491,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0003232860161519469</v>
+        <v>0.0003232860161439532</v>
       </c>
       <c r="D4">
-        <v>0.03016020825234733</v>
+        <v>0.03016020825233312</v>
       </c>
       <c r="E4">
-        <v>0.0543353525610506</v>
+        <v>0.05433535256107191</v>
       </c>
       <c r="F4">
         <v>1.77141871399995</v>
@@ -509,7 +509,7 @@
         <v>1.381278329956672</v>
       </c>
       <c r="I4">
-        <v>0.02072722223072887</v>
+        <v>0.02072722223072532</v>
       </c>
       <c r="J4">
         <v>6.543071335891426</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>3.760435448372206</v>
+        <v>3.760435448372164</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.000357870768596058</v>
+        <v>0.0003578707685925053</v>
       </c>
       <c r="D5">
-        <v>0.02808498103728851</v>
+        <v>0.02808498103738089</v>
       </c>
       <c r="E5">
-        <v>0.05262398809025726</v>
+        <v>0.05262398809029989</v>
       </c>
       <c r="F5">
-        <v>1.691462938131693</v>
+        <v>1.691462938131707</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.317703933479876</v>
+        <v>1.317703933479891</v>
       </c>
       <c r="I5">
-        <v>0.02036477550351101</v>
+        <v>0.02036477550350568</v>
       </c>
       <c r="J5">
-        <v>6.253800461713354</v>
+        <v>6.253800461713325</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3.593698744163916</v>
+        <v>3.59369874416393</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,13 +567,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0003665310685940781</v>
+        <v>0.0003665310684102252</v>
       </c>
       <c r="D6">
-        <v>0.02775053007293593</v>
+        <v>0.02775053007285777</v>
       </c>
       <c r="E6">
-        <v>0.05234073457401323</v>
+        <v>0.05234073457402033</v>
       </c>
       <c r="F6">
         <v>1.678442830989823</v>
@@ -582,19 +582,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.307345090887267</v>
+        <v>1.307345090887253</v>
       </c>
       <c r="I6">
-        <v>0.02030679212956699</v>
+        <v>0.02030679212958475</v>
       </c>
       <c r="J6">
-        <v>6.205967632650498</v>
+        <v>6.205967632650555</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>3.566138538136855</v>
+        <v>3.566138538136826</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,13 +605,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0003235512584325306</v>
+        <v>0.0003235512584547351</v>
       </c>
       <c r="D7">
         <v>0.03013151981972584</v>
       </c>
       <c r="E7">
-        <v>0.05431220916564428</v>
+        <v>0.05431220916569046</v>
       </c>
       <c r="F7">
         <v>1.770322711385234</v>
@@ -620,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.380407307977265</v>
+        <v>1.380407307977293</v>
       </c>
       <c r="I7">
-        <v>0.02072218323348096</v>
+        <v>0.02072218323348451</v>
       </c>
       <c r="J7">
-        <v>6.539156168233632</v>
+        <v>6.539156168233745</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>3.75817799018003</v>
+        <v>3.758177990180059</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,13 +643,13 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0006243004450823264</v>
+        <v>0.0006243004446639944</v>
       </c>
       <c r="D8">
-        <v>0.04236638265812331</v>
+        <v>0.04236638265813042</v>
       </c>
       <c r="E8">
-        <v>0.06316680601991109</v>
+        <v>0.06316680601991465</v>
       </c>
       <c r="F8">
         <v>2.218896247072919</v>
@@ -658,10 +658,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.736089622758769</v>
+        <v>1.736089622758755</v>
       </c>
       <c r="I8">
-        <v>0.0229149346909665</v>
+        <v>0.02291493469097716</v>
       </c>
       <c r="J8">
         <v>8.044754487068786</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>4.627746630853807</v>
+        <v>4.627746630853764</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,34 +681,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.003828624497256961</v>
+        <v>0.003828624497724586</v>
       </c>
       <c r="D9">
-        <v>0.07581665596978837</v>
+        <v>0.07581665596979548</v>
       </c>
       <c r="E9">
-        <v>0.08135104455637077</v>
+        <v>0.08135104455639208</v>
       </c>
       <c r="F9">
-        <v>3.327032997873232</v>
+        <v>3.327032997873289</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.610353378903412</v>
+        <v>2.610353378903469</v>
       </c>
       <c r="I9">
-        <v>0.02900482336456101</v>
+        <v>0.0290048233645841</v>
       </c>
       <c r="J9">
-        <v>11.20111987092466</v>
+        <v>11.20111987092471</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.459652412873368</v>
+        <v>6.459652412873453</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,25 +719,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.009013046596621166</v>
+        <v>0.009013046596403562</v>
       </c>
       <c r="D10">
-        <v>0.1108376977996528</v>
+        <v>0.1108376977998944</v>
       </c>
       <c r="E10">
-        <v>0.09556056482314901</v>
+        <v>0.09556056482318454</v>
       </c>
       <c r="F10">
-        <v>4.384006152618667</v>
+        <v>4.384006152618753</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3.441054002632015</v>
+        <v>3.441054002632058</v>
       </c>
       <c r="I10">
-        <v>0.03525601054914951</v>
+        <v>0.03525601054915839</v>
       </c>
       <c r="J10">
         <v>13.75076315438625</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.947942351600375</v>
+        <v>7.947942351600432</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,25 +757,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01244377602361402</v>
+        <v>0.01244377602376234</v>
       </c>
       <c r="D11">
-        <v>0.1307605412946486</v>
+        <v>0.1307605412946629</v>
       </c>
       <c r="E11">
-        <v>0.1023247937130982</v>
+        <v>0.1023247937131124</v>
       </c>
       <c r="F11">
-        <v>4.954809664114464</v>
+        <v>4.954809664114435</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.88887383538929</v>
+        <v>3.888873835389262</v>
       </c>
       <c r="I11">
-        <v>0.03872472356358259</v>
+        <v>0.03872472356358792</v>
       </c>
       <c r="J11">
         <v>14.99801992208734</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.678791058744025</v>
+        <v>8.678791058743968</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,34 +795,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01395987179351366</v>
+        <v>0.01395987179346125</v>
       </c>
       <c r="D12">
-        <v>0.1391143276232611</v>
+        <v>0.1391143276231617</v>
       </c>
       <c r="E12">
-        <v>0.1049437053640716</v>
+        <v>0.1049437053640752</v>
       </c>
       <c r="F12">
-        <v>5.188891912486355</v>
+        <v>5.188891912486213</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.072400854267585</v>
+        <v>4.072400854267485</v>
       </c>
       <c r="I12">
-        <v>0.0401591792863627</v>
+        <v>0.04015917928634671</v>
       </c>
       <c r="J12">
-        <v>15.48777892130923</v>
+        <v>15.48777892130897</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.966285317213533</v>
+        <v>8.966285317213561</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,34 +833,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01362235681589929</v>
+        <v>0.01362235681619461</v>
       </c>
       <c r="D13">
-        <v>0.1372741400517796</v>
+        <v>0.137274140051808</v>
       </c>
       <c r="E13">
-        <v>0.1043768311135231</v>
+        <v>0.1043768311134805</v>
       </c>
       <c r="F13">
-        <v>5.137574602029815</v>
+        <v>5.137574602029702</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.03217205261808</v>
+        <v>4.032172052617994</v>
       </c>
       <c r="I13">
-        <v>0.03984421860435283</v>
+        <v>0.03984421860434395</v>
       </c>
       <c r="J13">
-        <v>15.38142207088848</v>
+        <v>15.38142207088842</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.903827760711266</v>
+        <v>8.903827760711238</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01256368553153697</v>
+        <v>0.01256368553179632</v>
       </c>
       <c r="D14">
         <v>0.1314298189265202</v>
@@ -880,25 +880,25 @@
         <v>0.1025389997171686</v>
       </c>
       <c r="F14">
-        <v>4.973671171969187</v>
+        <v>4.973671171969215</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3.903664174509458</v>
+        <v>3.903664174509501</v>
       </c>
       <c r="I14">
-        <v>0.0388400861227538</v>
+        <v>0.03884008612273782</v>
       </c>
       <c r="J14">
-        <v>15.03792698835849</v>
+        <v>15.03792698835858</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.702206063416611</v>
+        <v>8.702206063416554</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,13 +909,13 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01194586221648741</v>
+        <v>0.01194586221641725</v>
       </c>
       <c r="D15">
-        <v>0.1279643734634988</v>
+        <v>0.1279643734632572</v>
       </c>
       <c r="E15">
-        <v>0.1014212749829042</v>
+        <v>0.10142127498289</v>
       </c>
       <c r="F15">
         <v>4.875799124941324</v>
@@ -924,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>3.826912604704006</v>
+        <v>3.826912604704063</v>
       </c>
       <c r="I15">
-        <v>0.0382419274821526</v>
+        <v>0.0382419274821455</v>
       </c>
       <c r="J15">
-        <v>14.82998113241729</v>
+        <v>14.82998113241734</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.58021740136698</v>
+        <v>8.580217401366951</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,25 +947,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.008815133266116604</v>
+        <v>0.008815133265916764</v>
       </c>
       <c r="D16">
-        <v>0.1096337159356224</v>
+        <v>0.109633715935658</v>
       </c>
       <c r="E16">
-        <v>0.0951256493355892</v>
+        <v>0.09512564933560341</v>
       </c>
       <c r="F16">
-        <v>4.348890627293343</v>
+        <v>4.348890627293287</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>3.413489068226824</v>
+        <v>3.413489068226795</v>
       </c>
       <c r="I16">
-        <v>0.03504426682639661</v>
+        <v>0.03504426682638595</v>
       </c>
       <c r="J16">
         <v>13.67138180894466</v>
@@ -985,34 +985,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.007205391505191283</v>
+        <v>0.007205391505206826</v>
       </c>
       <c r="D17">
-        <v>0.09954680585821762</v>
+        <v>0.09954680585835263</v>
       </c>
       <c r="E17">
-        <v>0.09134898479597453</v>
+        <v>0.09134898479599585</v>
       </c>
       <c r="F17">
-        <v>4.051602698359716</v>
+        <v>4.05160269835963</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3.180043433478019</v>
+        <v>3.180043433477962</v>
       </c>
       <c r="I17">
-        <v>0.03326103992886686</v>
+        <v>0.03326103992886864</v>
       </c>
       <c r="J17">
-        <v>12.98587575527921</v>
+        <v>12.98587575527912</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.50065945388593</v>
+        <v>7.500659453885959</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,34 +1023,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.006375471114163478</v>
+        <v>0.00637547111422343</v>
       </c>
       <c r="D18">
-        <v>0.09410216204110355</v>
+        <v>0.09410216204123145</v>
       </c>
       <c r="E18">
-        <v>0.08920392021735779</v>
+        <v>0.08920392021738266</v>
       </c>
       <c r="F18">
-        <v>3.888687722758505</v>
+        <v>3.888687722758391</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>3.052047971079659</v>
+        <v>3.052047971079588</v>
       </c>
       <c r="I18">
-        <v>0.03229179333183652</v>
+        <v>0.03229179333184895</v>
       </c>
       <c r="J18">
-        <v>12.59943804777822</v>
+        <v>12.59943804777825</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.274943883257095</v>
+        <v>7.274943883257066</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,25 +1061,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.006109483718189423</v>
+        <v>0.006109483717730679</v>
       </c>
       <c r="D19">
-        <v>0.09231449837495376</v>
+        <v>0.09231449837484718</v>
       </c>
       <c r="E19">
-        <v>0.08848195154873295</v>
+        <v>0.08848195154876137</v>
       </c>
       <c r="F19">
-        <v>3.834796317275732</v>
+        <v>3.834796317275675</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.00969655380085</v>
+        <v>3.009696553800836</v>
       </c>
       <c r="I19">
-        <v>0.03197256206669685</v>
+        <v>0.03197256206667909</v>
       </c>
       <c r="J19">
         <v>12.46982743376347</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.199278363117855</v>
+        <v>7.199278363117827</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0073664554542896</v>
+        <v>0.007366455454092424</v>
       </c>
       <c r="D20">
-        <v>0.1005822500798956</v>
+        <v>0.1005822500797109</v>
       </c>
       <c r="E20">
-        <v>0.09174811806730077</v>
+        <v>0.09174811806731142</v>
       </c>
       <c r="F20">
         <v>4.082384284603506</v>
@@ -1114,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3.20422174128484</v>
+        <v>3.204221741284826</v>
       </c>
       <c r="I20">
-        <v>0.03344484336767373</v>
+        <v>0.03344484336768083</v>
       </c>
       <c r="J20">
-        <v>13.05800797880758</v>
+        <v>13.05800797880761</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.542810771605502</v>
+        <v>7.542810771605474</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.0128680971290267</v>
+        <v>0.01286809712949166</v>
       </c>
       <c r="D21">
-        <v>0.1331220044870705</v>
+        <v>0.1331220044870634</v>
       </c>
       <c r="E21">
-        <v>0.1030771141216391</v>
+        <v>0.1030771141216356</v>
       </c>
       <c r="F21">
-        <v>5.021275136902545</v>
+        <v>5.021275136902602</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>3.940991139944316</v>
+        <v>3.940991139944359</v>
       </c>
       <c r="I21">
-        <v>0.03913142569302508</v>
+        <v>0.03913142569301797</v>
       </c>
       <c r="J21">
-        <v>15.13829615314231</v>
+        <v>15.13829615314239</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.761105032763311</v>
+        <v>8.761105032763339</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.01778493019398875</v>
+        <v>0.0177849301939732</v>
       </c>
       <c r="D22">
-        <v>0.1593186405680527</v>
+        <v>0.15931864056828</v>
       </c>
       <c r="E22">
-        <v>0.1108275744845244</v>
+        <v>0.1108275744845386</v>
       </c>
       <c r="F22">
-        <v>5.743815697416494</v>
+        <v>5.743815697416636</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.507243275924708</v>
+        <v>4.507243275924807</v>
       </c>
       <c r="I22">
-        <v>0.04357907983129117</v>
+        <v>0.0435790798313036</v>
       </c>
       <c r="J22">
-        <v>16.60379616160992</v>
+        <v>16.60379616160986</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.622502588294964</v>
+        <v>9.622502588294992</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,28 +1213,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01500964406555427</v>
+        <v>0.01500964406509198</v>
       </c>
       <c r="D23">
-        <v>0.1447727873336717</v>
+        <v>0.1447727873336859</v>
       </c>
       <c r="E23">
-        <v>0.1066529281179882</v>
+        <v>0.1066529281180024</v>
       </c>
       <c r="F23">
-        <v>5.345848280569896</v>
+        <v>5.34584828056984</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.195424627421247</v>
+        <v>4.195424627421218</v>
       </c>
       <c r="I23">
-        <v>0.04112402929820824</v>
+        <v>0.0411240292981887</v>
       </c>
       <c r="J23">
-        <v>15.80966107648288</v>
+        <v>15.80966107648305</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1251,13 +1251,13 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.007293345098558834</v>
+        <v>0.007293345098569937</v>
       </c>
       <c r="D24">
-        <v>0.1001130376385575</v>
+        <v>0.1001130376386641</v>
       </c>
       <c r="E24">
-        <v>0.09156758932978093</v>
+        <v>0.09156758932979869</v>
       </c>
       <c r="F24">
         <v>4.068443351439925</v>
@@ -1266,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3.193271632996897</v>
+        <v>3.193271632996883</v>
       </c>
       <c r="I24">
-        <v>0.03336157368029546</v>
+        <v>0.03336157368029902</v>
       </c>
       <c r="J24">
-        <v>13.02537344768794</v>
+        <v>13.025373447688</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,34 +1289,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.002578628183409482</v>
+        <v>0.002578628183413034</v>
       </c>
       <c r="D25">
         <v>0.06536301901374486</v>
       </c>
       <c r="E25">
-        <v>0.07631325973527225</v>
+        <v>0.07631325973526515</v>
       </c>
       <c r="F25">
-        <v>2.99402496177791</v>
+        <v>2.994024961777967</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.348093142655301</v>
+        <v>2.34809314265533</v>
       </c>
       <c r="I25">
-        <v>0.02710695617218839</v>
+        <v>0.02710695617223102</v>
       </c>
       <c r="J25">
-        <v>10.31630315776985</v>
+        <v>10.31630315776997</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>5.944934979123587</v>
+        <v>5.944934979123616</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_44/res_line/pl_mw.xlsx
@@ -415,34 +415,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0008495455615671332</v>
+        <v>0.0008495455615715741</v>
       </c>
       <c r="D2">
-        <v>0.04619525800527668</v>
+        <v>0.04619525800507063</v>
       </c>
       <c r="E2">
-        <v>0.06561140037597468</v>
+        <v>0.06561140037598889</v>
       </c>
       <c r="F2">
-        <v>2.353061025299667</v>
+        <v>2.353061025299652</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.842215216573862</v>
+        <v>1.842215216573834</v>
       </c>
       <c r="I2">
-        <v>0.02361107025273768</v>
+        <v>0.02361107025271636</v>
       </c>
       <c r="J2">
-        <v>8.46352957757594</v>
+        <v>8.463529577575912</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>4.870114949000609</v>
+        <v>4.870114949000524</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,28 +453,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0003678153345756385</v>
+        <v>0.0003678153343695811</v>
       </c>
       <c r="D3">
-        <v>0.03570631848324268</v>
+        <v>0.03570631848317163</v>
       </c>
       <c r="E3">
-        <v>0.05857576387463581</v>
+        <v>0.05857576387463936</v>
       </c>
       <c r="F3">
-        <v>1.979006978028053</v>
+        <v>1.979006978028039</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.546063132664528</v>
+        <v>1.546063132664514</v>
       </c>
       <c r="I3">
-        <v>0.02171260705548406</v>
+        <v>0.02171260705550893</v>
       </c>
       <c r="J3">
-        <v>7.262083313527455</v>
+        <v>7.262083313527484</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,13 +491,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0003232860161439532</v>
+        <v>0.0003232860161519469</v>
       </c>
       <c r="D4">
-        <v>0.03016020825233312</v>
+        <v>0.03016020825234733</v>
       </c>
       <c r="E4">
-        <v>0.05433535256107191</v>
+        <v>0.0543353525610506</v>
       </c>
       <c r="F4">
         <v>1.77141871399995</v>
@@ -509,7 +509,7 @@
         <v>1.381278329956672</v>
       </c>
       <c r="I4">
-        <v>0.02072722223072532</v>
+        <v>0.02072722223072887</v>
       </c>
       <c r="J4">
         <v>6.543071335891426</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>3.760435448372164</v>
+        <v>3.760435448372206</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0003578707685925053</v>
+        <v>0.000357870768596058</v>
       </c>
       <c r="D5">
-        <v>0.02808498103738089</v>
+        <v>0.02808498103728851</v>
       </c>
       <c r="E5">
-        <v>0.05262398809029989</v>
+        <v>0.05262398809025726</v>
       </c>
       <c r="F5">
-        <v>1.691462938131707</v>
+        <v>1.691462938131693</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.317703933479891</v>
+        <v>1.317703933479876</v>
       </c>
       <c r="I5">
-        <v>0.02036477550350568</v>
+        <v>0.02036477550351101</v>
       </c>
       <c r="J5">
-        <v>6.253800461713325</v>
+        <v>6.253800461713354</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3.59369874416393</v>
+        <v>3.593698744163916</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,13 +567,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0003665310684102252</v>
+        <v>0.0003665310685940781</v>
       </c>
       <c r="D6">
-        <v>0.02775053007285777</v>
+        <v>0.02775053007293593</v>
       </c>
       <c r="E6">
-        <v>0.05234073457402033</v>
+        <v>0.05234073457401323</v>
       </c>
       <c r="F6">
         <v>1.678442830989823</v>
@@ -582,19 +582,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.307345090887253</v>
+        <v>1.307345090887267</v>
       </c>
       <c r="I6">
-        <v>0.02030679212958475</v>
+        <v>0.02030679212956699</v>
       </c>
       <c r="J6">
-        <v>6.205967632650555</v>
+        <v>6.205967632650498</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>3.566138538136826</v>
+        <v>3.566138538136855</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,13 +605,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0003235512584547351</v>
+        <v>0.0003235512584325306</v>
       </c>
       <c r="D7">
         <v>0.03013151981972584</v>
       </c>
       <c r="E7">
-        <v>0.05431220916569046</v>
+        <v>0.05431220916564428</v>
       </c>
       <c r="F7">
         <v>1.770322711385234</v>
@@ -620,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.380407307977293</v>
+        <v>1.380407307977265</v>
       </c>
       <c r="I7">
-        <v>0.02072218323348451</v>
+        <v>0.02072218323348096</v>
       </c>
       <c r="J7">
-        <v>6.539156168233745</v>
+        <v>6.539156168233632</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>3.758177990180059</v>
+        <v>3.75817799018003</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,13 +643,13 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0006243004446639944</v>
+        <v>0.0006243004450823264</v>
       </c>
       <c r="D8">
-        <v>0.04236638265813042</v>
+        <v>0.04236638265812331</v>
       </c>
       <c r="E8">
-        <v>0.06316680601991465</v>
+        <v>0.06316680601991109</v>
       </c>
       <c r="F8">
         <v>2.218896247072919</v>
@@ -658,10 +658,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.736089622758755</v>
+        <v>1.736089622758769</v>
       </c>
       <c r="I8">
-        <v>0.02291493469097716</v>
+        <v>0.0229149346909665</v>
       </c>
       <c r="J8">
         <v>8.044754487068786</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>4.627746630853764</v>
+        <v>4.627746630853807</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,34 +681,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.003828624497724586</v>
+        <v>0.003828624497256961</v>
       </c>
       <c r="D9">
-        <v>0.07581665596979548</v>
+        <v>0.07581665596978837</v>
       </c>
       <c r="E9">
-        <v>0.08135104455639208</v>
+        <v>0.08135104455637077</v>
       </c>
       <c r="F9">
-        <v>3.327032997873289</v>
+        <v>3.327032997873232</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.610353378903469</v>
+        <v>2.610353378903412</v>
       </c>
       <c r="I9">
-        <v>0.0290048233645841</v>
+        <v>0.02900482336456101</v>
       </c>
       <c r="J9">
-        <v>11.20111987092471</v>
+        <v>11.20111987092466</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.459652412873453</v>
+        <v>6.459652412873368</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,25 +719,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.009013046596403562</v>
+        <v>0.009013046596621166</v>
       </c>
       <c r="D10">
-        <v>0.1108376977998944</v>
+        <v>0.1108376977996528</v>
       </c>
       <c r="E10">
-        <v>0.09556056482318454</v>
+        <v>0.09556056482314901</v>
       </c>
       <c r="F10">
-        <v>4.384006152618753</v>
+        <v>4.384006152618667</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3.441054002632058</v>
+        <v>3.441054002632015</v>
       </c>
       <c r="I10">
-        <v>0.03525601054915839</v>
+        <v>0.03525601054914951</v>
       </c>
       <c r="J10">
         <v>13.75076315438625</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.947942351600432</v>
+        <v>7.947942351600375</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,25 +757,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01244377602376234</v>
+        <v>0.01244377602361402</v>
       </c>
       <c r="D11">
-        <v>0.1307605412946629</v>
+        <v>0.1307605412946486</v>
       </c>
       <c r="E11">
-        <v>0.1023247937131124</v>
+        <v>0.1023247937130982</v>
       </c>
       <c r="F11">
-        <v>4.954809664114435</v>
+        <v>4.954809664114464</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.888873835389262</v>
+        <v>3.88887383538929</v>
       </c>
       <c r="I11">
-        <v>0.03872472356358792</v>
+        <v>0.03872472356358259</v>
       </c>
       <c r="J11">
         <v>14.99801992208734</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.678791058743968</v>
+        <v>8.678791058744025</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,34 +795,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01395987179346125</v>
+        <v>0.01395987179351366</v>
       </c>
       <c r="D12">
-        <v>0.1391143276231617</v>
+        <v>0.1391143276232611</v>
       </c>
       <c r="E12">
-        <v>0.1049437053640752</v>
+        <v>0.1049437053640716</v>
       </c>
       <c r="F12">
-        <v>5.188891912486213</v>
+        <v>5.188891912486355</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.072400854267485</v>
+        <v>4.072400854267585</v>
       </c>
       <c r="I12">
-        <v>0.04015917928634671</v>
+        <v>0.0401591792863627</v>
       </c>
       <c r="J12">
-        <v>15.48777892130897</v>
+        <v>15.48777892130923</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.966285317213561</v>
+        <v>8.966285317213533</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,34 +833,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01362235681619461</v>
+        <v>0.01362235681589929</v>
       </c>
       <c r="D13">
-        <v>0.137274140051808</v>
+        <v>0.1372741400517796</v>
       </c>
       <c r="E13">
-        <v>0.1043768311134805</v>
+        <v>0.1043768311135231</v>
       </c>
       <c r="F13">
-        <v>5.137574602029702</v>
+        <v>5.137574602029815</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.032172052617994</v>
+        <v>4.03217205261808</v>
       </c>
       <c r="I13">
-        <v>0.03984421860434395</v>
+        <v>0.03984421860435283</v>
       </c>
       <c r="J13">
-        <v>15.38142207088842</v>
+        <v>15.38142207088848</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.903827760711238</v>
+        <v>8.903827760711266</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01256368553179632</v>
+        <v>0.01256368553153697</v>
       </c>
       <c r="D14">
         <v>0.1314298189265202</v>
@@ -880,25 +880,25 @@
         <v>0.1025389997171686</v>
       </c>
       <c r="F14">
-        <v>4.973671171969215</v>
+        <v>4.973671171969187</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3.903664174509501</v>
+        <v>3.903664174509458</v>
       </c>
       <c r="I14">
-        <v>0.03884008612273782</v>
+        <v>0.0388400861227538</v>
       </c>
       <c r="J14">
-        <v>15.03792698835858</v>
+        <v>15.03792698835849</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.702206063416554</v>
+        <v>8.702206063416611</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,13 +909,13 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01194586221641725</v>
+        <v>0.01194586221648741</v>
       </c>
       <c r="D15">
-        <v>0.1279643734632572</v>
+        <v>0.1279643734634988</v>
       </c>
       <c r="E15">
-        <v>0.10142127498289</v>
+        <v>0.1014212749829042</v>
       </c>
       <c r="F15">
         <v>4.875799124941324</v>
@@ -924,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>3.826912604704063</v>
+        <v>3.826912604704006</v>
       </c>
       <c r="I15">
-        <v>0.0382419274821455</v>
+        <v>0.0382419274821526</v>
       </c>
       <c r="J15">
-        <v>14.82998113241734</v>
+        <v>14.82998113241729</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.580217401366951</v>
+        <v>8.58021740136698</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,25 +947,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.008815133265916764</v>
+        <v>0.008815133266116604</v>
       </c>
       <c r="D16">
-        <v>0.109633715935658</v>
+        <v>0.1096337159356224</v>
       </c>
       <c r="E16">
-        <v>0.09512564933560341</v>
+        <v>0.0951256493355892</v>
       </c>
       <c r="F16">
-        <v>4.348890627293287</v>
+        <v>4.348890627293343</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>3.413489068226795</v>
+        <v>3.413489068226824</v>
       </c>
       <c r="I16">
-        <v>0.03504426682638595</v>
+        <v>0.03504426682639661</v>
       </c>
       <c r="J16">
         <v>13.67138180894466</v>
@@ -985,34 +985,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.007205391505206826</v>
+        <v>0.007205391505191283</v>
       </c>
       <c r="D17">
-        <v>0.09954680585835263</v>
+        <v>0.09954680585821762</v>
       </c>
       <c r="E17">
-        <v>0.09134898479599585</v>
+        <v>0.09134898479597453</v>
       </c>
       <c r="F17">
-        <v>4.05160269835963</v>
+        <v>4.051602698359716</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3.180043433477962</v>
+        <v>3.180043433478019</v>
       </c>
       <c r="I17">
-        <v>0.03326103992886864</v>
+        <v>0.03326103992886686</v>
       </c>
       <c r="J17">
-        <v>12.98587575527912</v>
+        <v>12.98587575527921</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.500659453885959</v>
+        <v>7.50065945388593</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,34 +1023,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.00637547111422343</v>
+        <v>0.006375471114163478</v>
       </c>
       <c r="D18">
-        <v>0.09410216204123145</v>
+        <v>0.09410216204110355</v>
       </c>
       <c r="E18">
-        <v>0.08920392021738266</v>
+        <v>0.08920392021735779</v>
       </c>
       <c r="F18">
-        <v>3.888687722758391</v>
+        <v>3.888687722758505</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>3.052047971079588</v>
+        <v>3.052047971079659</v>
       </c>
       <c r="I18">
-        <v>0.03229179333184895</v>
+        <v>0.03229179333183652</v>
       </c>
       <c r="J18">
-        <v>12.59943804777825</v>
+        <v>12.59943804777822</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.274943883257066</v>
+        <v>7.274943883257095</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,25 +1061,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.006109483717730679</v>
+        <v>0.006109483718189423</v>
       </c>
       <c r="D19">
-        <v>0.09231449837484718</v>
+        <v>0.09231449837495376</v>
       </c>
       <c r="E19">
-        <v>0.08848195154876137</v>
+        <v>0.08848195154873295</v>
       </c>
       <c r="F19">
-        <v>3.834796317275675</v>
+        <v>3.834796317275732</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.009696553800836</v>
+        <v>3.00969655380085</v>
       </c>
       <c r="I19">
-        <v>0.03197256206667909</v>
+        <v>0.03197256206669685</v>
       </c>
       <c r="J19">
         <v>12.46982743376347</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.199278363117827</v>
+        <v>7.199278363117855</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.007366455454092424</v>
+        <v>0.0073664554542896</v>
       </c>
       <c r="D20">
-        <v>0.1005822500797109</v>
+        <v>0.1005822500798956</v>
       </c>
       <c r="E20">
-        <v>0.09174811806731142</v>
+        <v>0.09174811806730077</v>
       </c>
       <c r="F20">
         <v>4.082384284603506</v>
@@ -1114,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3.204221741284826</v>
+        <v>3.20422174128484</v>
       </c>
       <c r="I20">
-        <v>0.03344484336768083</v>
+        <v>0.03344484336767373</v>
       </c>
       <c r="J20">
-        <v>13.05800797880761</v>
+        <v>13.05800797880758</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.542810771605474</v>
+        <v>7.542810771605502</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01286809712949166</v>
+        <v>0.0128680971290267</v>
       </c>
       <c r="D21">
-        <v>0.1331220044870634</v>
+        <v>0.1331220044870705</v>
       </c>
       <c r="E21">
-        <v>0.1030771141216356</v>
+        <v>0.1030771141216391</v>
       </c>
       <c r="F21">
-        <v>5.021275136902602</v>
+        <v>5.021275136902545</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>3.940991139944359</v>
+        <v>3.940991139944316</v>
       </c>
       <c r="I21">
-        <v>0.03913142569301797</v>
+        <v>0.03913142569302508</v>
       </c>
       <c r="J21">
-        <v>15.13829615314239</v>
+        <v>15.13829615314231</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.761105032763339</v>
+        <v>8.761105032763311</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.0177849301939732</v>
+        <v>0.01778493019398875</v>
       </c>
       <c r="D22">
-        <v>0.15931864056828</v>
+        <v>0.1593186405680527</v>
       </c>
       <c r="E22">
-        <v>0.1108275744845386</v>
+        <v>0.1108275744845244</v>
       </c>
       <c r="F22">
-        <v>5.743815697416636</v>
+        <v>5.743815697416494</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.507243275924807</v>
+        <v>4.507243275924708</v>
       </c>
       <c r="I22">
-        <v>0.0435790798313036</v>
+        <v>0.04357907983129117</v>
       </c>
       <c r="J22">
-        <v>16.60379616160986</v>
+        <v>16.60379616160992</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.622502588294992</v>
+        <v>9.622502588294964</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,28 +1213,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01500964406509198</v>
+        <v>0.01500964406555427</v>
       </c>
       <c r="D23">
-        <v>0.1447727873336859</v>
+        <v>0.1447727873336717</v>
       </c>
       <c r="E23">
-        <v>0.1066529281180024</v>
+        <v>0.1066529281179882</v>
       </c>
       <c r="F23">
-        <v>5.34584828056984</v>
+        <v>5.345848280569896</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.195424627421218</v>
+        <v>4.195424627421247</v>
       </c>
       <c r="I23">
-        <v>0.0411240292981887</v>
+        <v>0.04112402929820824</v>
       </c>
       <c r="J23">
-        <v>15.80966107648305</v>
+        <v>15.80966107648288</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1251,13 +1251,13 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.007293345098569937</v>
+        <v>0.007293345098558834</v>
       </c>
       <c r="D24">
-        <v>0.1001130376386641</v>
+        <v>0.1001130376385575</v>
       </c>
       <c r="E24">
-        <v>0.09156758932979869</v>
+        <v>0.09156758932978093</v>
       </c>
       <c r="F24">
         <v>4.068443351439925</v>
@@ -1266,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3.193271632996883</v>
+        <v>3.193271632996897</v>
       </c>
       <c r="I24">
-        <v>0.03336157368029902</v>
+        <v>0.03336157368029546</v>
       </c>
       <c r="J24">
-        <v>13.025373447688</v>
+        <v>13.02537344768794</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,34 +1289,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.002578628183413034</v>
+        <v>0.002578628183409482</v>
       </c>
       <c r="D25">
         <v>0.06536301901374486</v>
       </c>
       <c r="E25">
-        <v>0.07631325973526515</v>
+        <v>0.07631325973527225</v>
       </c>
       <c r="F25">
-        <v>2.994024961777967</v>
+        <v>2.99402496177791</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.34809314265533</v>
+        <v>2.348093142655301</v>
       </c>
       <c r="I25">
-        <v>0.02710695617223102</v>
+        <v>0.02710695617218839</v>
       </c>
       <c r="J25">
-        <v>10.31630315776997</v>
+        <v>10.31630315776985</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>5.944934979123616</v>
+        <v>5.944934979123587</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_44/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0008495455615715741</v>
+        <v>0.0005375012682176106</v>
       </c>
       <c r="D2">
-        <v>0.04619525800507063</v>
+        <v>0.0433534596226437</v>
       </c>
       <c r="E2">
-        <v>0.06561140037598889</v>
+        <v>0.06439760895481683</v>
       </c>
       <c r="F2">
-        <v>2.353061025299652</v>
+        <v>2.332029547985812</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.000710099837239545</v>
       </c>
       <c r="H2">
-        <v>1.842215216573834</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.02361107025271636</v>
+        <v>1.824257494431748</v>
       </c>
       <c r="J2">
-        <v>8.463529577575912</v>
+        <v>0.02340922774247467</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>8.416061388571364</v>
       </c>
       <c r="L2">
-        <v>4.870114949000524</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>4.844343198534744</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0003678153343695811</v>
+        <v>0.0003155903649636471</v>
       </c>
       <c r="D3">
-        <v>0.03570631848317163</v>
+        <v>0.03361622602994174</v>
       </c>
       <c r="E3">
-        <v>0.05857576387463936</v>
+        <v>0.05728839061767133</v>
       </c>
       <c r="F3">
-        <v>1.979006978028039</v>
+        <v>1.968490751507716</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007275067685071912</v>
       </c>
       <c r="H3">
-        <v>1.546063132664514</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.02171260705550893</v>
+        <v>1.536413687096086</v>
       </c>
       <c r="J3">
-        <v>7.262083313527484</v>
+        <v>0.0214621168058553</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>7.222685680932869</v>
       </c>
       <c r="L3">
-        <v>4.175350936063353</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>4.154364834782498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0003232860161519469</v>
+        <v>0.0004276124903483947</v>
       </c>
       <c r="D4">
-        <v>0.03016020825234733</v>
+        <v>0.0285187374423117</v>
       </c>
       <c r="E4">
-        <v>0.0543353525610506</v>
+        <v>0.05300057602325836</v>
       </c>
       <c r="F4">
-        <v>1.77141871399995</v>
+        <v>1.767090320768574</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007382276543218681</v>
       </c>
       <c r="H4">
-        <v>1.381278329956672</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.02072722223072887</v>
+        <v>1.376520319866174</v>
       </c>
       <c r="J4">
-        <v>6.543071335891426</v>
+        <v>0.02044509125039262</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>6.508363508179144</v>
       </c>
       <c r="L4">
-        <v>3.760435448372206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>3.742225001233265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.000357870768596058</v>
+        <v>0.0005255829633847853</v>
       </c>
       <c r="D5">
-        <v>0.02808498103728851</v>
+        <v>0.02662427224782959</v>
       </c>
       <c r="E5">
-        <v>0.05262398809025726</v>
+        <v>0.05126936071379617</v>
       </c>
       <c r="F5">
-        <v>1.691462938131693</v>
+        <v>1.689609669412135</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007426170245121352</v>
       </c>
       <c r="H5">
-        <v>1.317703933479876</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.02036477550351101</v>
+        <v>1.314902968229234</v>
       </c>
       <c r="J5">
-        <v>6.253800461713354</v>
+        <v>0.02006935641537666</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>6.220954591288915</v>
       </c>
       <c r="L5">
-        <v>3.593698744163916</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>3.576589147988045</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0003665310685940781</v>
+        <v>0.0005447520861725508</v>
       </c>
       <c r="D6">
-        <v>0.02775053007293593</v>
+        <v>0.02631974233165124</v>
       </c>
       <c r="E6">
-        <v>0.05234073457401323</v>
+        <v>0.05098277934492401</v>
       </c>
       <c r="F6">
-        <v>1.678442830989823</v>
+        <v>1.676998270862256</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007433474332744457</v>
       </c>
       <c r="H6">
-        <v>1.307345090887267</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.02030679212956699</v>
+        <v>1.304867311600091</v>
       </c>
       <c r="J6">
-        <v>6.205967632650498</v>
+        <v>0.02000914394361075</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>6.173428403594841</v>
       </c>
       <c r="L6">
-        <v>3.566138538136855</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>3.549210174016622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0003235512584325306</v>
+        <v>0.0004287338445783107</v>
       </c>
       <c r="D7">
-        <v>0.03013151981972584</v>
+        <v>0.02849249377182161</v>
       </c>
       <c r="E7">
-        <v>0.05431220916564428</v>
+        <v>0.05297716704530941</v>
       </c>
       <c r="F7">
-        <v>1.770322711385234</v>
+        <v>1.76602786249066</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007382867532182719</v>
       </c>
       <c r="H7">
-        <v>1.380407307977265</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.02072218323348096</v>
+        <v>1.375675819089508</v>
       </c>
       <c r="J7">
-        <v>6.539156168233632</v>
+        <v>0.02043987458560714</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>6.50447363048653</v>
       </c>
       <c r="L7">
-        <v>3.75817799018003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>3.739982499766157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0006243004450823264</v>
+        <v>0.000402691487550122</v>
       </c>
       <c r="D8">
-        <v>0.04236638265812331</v>
+        <v>0.03978727453413455</v>
       </c>
       <c r="E8">
-        <v>0.06316680601991109</v>
+        <v>0.06192812345159382</v>
       </c>
       <c r="F8">
-        <v>2.218896247072919</v>
+        <v>2.201560624230595</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007161030070698211</v>
       </c>
       <c r="H8">
-        <v>1.736089622758769</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.0229149346909665</v>
+        <v>1.721051488992316</v>
       </c>
       <c r="J8">
-        <v>8.044754487068786</v>
+        <v>0.02269672242863052</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>8.00013624509441</v>
       </c>
       <c r="L8">
-        <v>4.627746630853807</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>4.603666097731121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.003828624497256961</v>
+        <v>0.002921155621235183</v>
       </c>
       <c r="D9">
-        <v>0.07581665596978837</v>
+        <v>0.07121552319308933</v>
       </c>
       <c r="E9">
-        <v>0.08135104455637077</v>
+        <v>0.08028185237671082</v>
       </c>
       <c r="F9">
-        <v>3.327032997873232</v>
+        <v>3.280646983908923</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0006721564182801161</v>
       </c>
       <c r="H9">
-        <v>2.610353378903412</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.02900482336456101</v>
+        <v>2.572382912740679</v>
       </c>
       <c r="J9">
-        <v>11.20111987092466</v>
+        <v>0.02889463096399325</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>11.13377903910202</v>
       </c>
       <c r="L9">
-        <v>6.459652412873368</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>6.422052538464669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.009013046596621166</v>
+        <v>0.007527628534415243</v>
       </c>
       <c r="D10">
-        <v>0.1108376977996528</v>
+        <v>0.1044754389002591</v>
       </c>
       <c r="E10">
-        <v>0.09556056482314901</v>
+        <v>0.09459953322443582</v>
       </c>
       <c r="F10">
-        <v>4.384006152618667</v>
+        <v>4.311176517273196</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0006382444834015893</v>
       </c>
       <c r="H10">
-        <v>3.441054002632015</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.03525601054914951</v>
+        <v>3.382240045819998</v>
       </c>
       <c r="J10">
-        <v>13.75076315438625</v>
+        <v>0.035205471513855</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.66223530284199</v>
       </c>
       <c r="L10">
-        <v>7.947942351600375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>7.897671053840554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01244377602361402</v>
+        <v>0.01065973938663456</v>
       </c>
       <c r="D11">
-        <v>0.1307605412946486</v>
+        <v>0.1234664577725511</v>
       </c>
       <c r="E11">
-        <v>0.1023247937130982</v>
+        <v>0.1014072990192716</v>
       </c>
       <c r="F11">
-        <v>4.954809664114464</v>
+        <v>4.867564904624089</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0006219866942147465</v>
       </c>
       <c r="H11">
-        <v>3.88887383538929</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.03872472356358259</v>
+        <v>3.818708745704342</v>
       </c>
       <c r="J11">
-        <v>14.99801992208734</v>
+        <v>0.03869279409049042</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.89779352011269</v>
       </c>
       <c r="L11">
-        <v>8.678791058744025</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>8.621499179371682</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01395987179351366</v>
+        <v>0.01205458397998571</v>
       </c>
       <c r="D12">
-        <v>0.1391143276232611</v>
+        <v>0.131437554576479</v>
       </c>
       <c r="E12">
-        <v>0.1049437053640716</v>
+        <v>0.1040415330109461</v>
       </c>
       <c r="F12">
-        <v>5.188891912486355</v>
+        <v>5.09564491374752</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0006156477569201346</v>
       </c>
       <c r="H12">
-        <v>4.072400854267585</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.0401591792863627</v>
+        <v>3.997511445021601</v>
       </c>
       <c r="J12">
-        <v>15.48777892130923</v>
+        <v>0.04013235948053051</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>15.38265568918075</v>
       </c>
       <c r="L12">
-        <v>8.966285317213533</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>8.906050070298591</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01362235681589929</v>
+        <v>0.01174361631003684</v>
       </c>
       <c r="D13">
-        <v>0.1372741400517796</v>
+        <v>0.1296813690386003</v>
       </c>
       <c r="E13">
-        <v>0.1043768311135231</v>
+        <v>0.10347141889536</v>
       </c>
       <c r="F13">
-        <v>5.137574602029815</v>
+        <v>5.045649139373296</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.000617022400863206</v>
       </c>
       <c r="H13">
-        <v>4.03217205261808</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.03984421860435283</v>
+        <v>3.958322712527988</v>
       </c>
       <c r="J13">
-        <v>15.38142207088848</v>
+        <v>0.0398164015630087</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>15.27737820038811</v>
       </c>
       <c r="L13">
-        <v>8.903827760711266</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>8.844241520585228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01256368553153697</v>
+        <v>0.01076986171374106</v>
       </c>
       <c r="D14">
-        <v>0.1314298189265202</v>
+        <v>0.1241049383267807</v>
       </c>
       <c r="E14">
-        <v>0.1025389997171686</v>
+        <v>0.1016227918158812</v>
       </c>
       <c r="F14">
-        <v>4.973671171969187</v>
+        <v>4.885945123552574</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0006214693085018208</v>
       </c>
       <c r="H14">
-        <v>3.903664174509458</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.0388400861227538</v>
+        <v>3.833120221315596</v>
       </c>
       <c r="J14">
-        <v>15.03792698835849</v>
+        <v>0.03880862177274658</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.93730846152843</v>
       </c>
       <c r="L14">
-        <v>8.702206063416611</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>8.644678585802581</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01194586221648741</v>
+        <v>0.0102028653442181</v>
       </c>
       <c r="D15">
-        <v>0.1279643734634988</v>
+        <v>0.120799251047373</v>
       </c>
       <c r="E15">
-        <v>0.1014212749829042</v>
+        <v>0.1004982883574712</v>
       </c>
       <c r="F15">
-        <v>4.875799124941324</v>
+        <v>4.790566394784832</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0006241670472832814</v>
       </c>
       <c r="H15">
-        <v>3.826912604704006</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.0382419274821526</v>
+        <v>3.758331440151338</v>
       </c>
       <c r="J15">
-        <v>14.82998113241729</v>
+        <v>0.03820794710440367</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.73139298418238</v>
       </c>
       <c r="L15">
-        <v>8.58021740136698</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>8.523909636607243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.008815133266116604</v>
+        <v>0.007348292260488165</v>
       </c>
       <c r="D16">
-        <v>0.1096337159356224</v>
+        <v>0.1033289266508248</v>
       </c>
       <c r="E16">
-        <v>0.0951256493355892</v>
+        <v>0.09416163354923412</v>
       </c>
       <c r="F16">
-        <v>4.348890627293343</v>
+        <v>4.276940580376106</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0006392854679124321</v>
       </c>
       <c r="H16">
-        <v>3.413489068226824</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.03504426682639661</v>
+        <v>3.355367983568541</v>
       </c>
       <c r="J16">
-        <v>13.67138180894466</v>
+        <v>0.03499228951918099</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.58356472327335</v>
       </c>
       <c r="L16">
-        <v>7.901490441581814</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>7.851645166041862</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.007205391505191283</v>
+        <v>0.005897166219185124</v>
       </c>
       <c r="D17">
-        <v>0.09954680585821762</v>
+        <v>0.09373034728248086</v>
       </c>
       <c r="E17">
-        <v>0.09134898479597453</v>
+        <v>0.09035816227833138</v>
       </c>
       <c r="F17">
-        <v>4.051602698359716</v>
+        <v>3.987081664921163</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0006483103585530614</v>
       </c>
       <c r="H17">
-        <v>3.180043433478019</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.03326103992886686</v>
+        <v>3.12777552482315</v>
       </c>
       <c r="J17">
-        <v>12.98587575527921</v>
+        <v>0.0331954634847893</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.90404647286528</v>
       </c>
       <c r="L17">
-        <v>7.50065945388593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>7.454400690181274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.006375471114163478</v>
+        <v>0.00515536613940526</v>
       </c>
       <c r="D18">
-        <v>0.09410216204110355</v>
+        <v>0.08855518727931866</v>
       </c>
       <c r="E18">
-        <v>0.08920392021735779</v>
+        <v>0.08819717512685443</v>
       </c>
       <c r="F18">
-        <v>3.888687722758505</v>
+        <v>3.828231644123349</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0006534279308475588</v>
       </c>
       <c r="H18">
-        <v>3.052047971079659</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.03229179333183652</v>
+        <v>3.002983668054824</v>
       </c>
       <c r="J18">
-        <v>12.59943804777822</v>
+        <v>0.03221765215795713</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.52087293506816</v>
       </c>
       <c r="L18">
-        <v>7.274943883257095</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>7.230638345521868</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.006109483718189423</v>
+        <v>0.004918746400182528</v>
       </c>
       <c r="D19">
-        <v>0.09231449837495376</v>
+        <v>0.0868570487221092</v>
       </c>
       <c r="E19">
-        <v>0.08848195154873295</v>
+        <v>0.08746973613387965</v>
       </c>
       <c r="F19">
-        <v>3.834796317275732</v>
+        <v>3.77568516004618</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0006551495693536335</v>
       </c>
       <c r="H19">
-        <v>3.00969655380085</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.03197256206669685</v>
+        <v>2.961692332591738</v>
       </c>
       <c r="J19">
-        <v>12.46982743376347</v>
+        <v>0.03189540825473358</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.39234029725489</v>
       </c>
       <c r="L19">
-        <v>7.199278363117855</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>7.155617565770854</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0073664554542896</v>
+        <v>0.006041683755442229</v>
       </c>
       <c r="D20">
-        <v>0.1005822500798956</v>
+        <v>0.09471504657456364</v>
       </c>
       <c r="E20">
-        <v>0.09174811806730077</v>
+        <v>0.09076020318762801</v>
       </c>
       <c r="F20">
-        <v>4.082384284603506</v>
+        <v>4.017095031393524</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0006473576022124452</v>
       </c>
       <c r="H20">
-        <v>3.20422174128484</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.03344484336767373</v>
+        <v>3.151348468735961</v>
       </c>
       <c r="J20">
-        <v>13.05800797880758</v>
+        <v>0.03338079518751869</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.97556081890448</v>
       </c>
       <c r="L20">
-        <v>7.542810771605502</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>7.49618212644657</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.0128680971290267</v>
+        <v>0.01104958704075809</v>
       </c>
       <c r="D21">
-        <v>0.1331220044870705</v>
+        <v>0.1257193717061114</v>
       </c>
       <c r="E21">
-        <v>0.1030771141216391</v>
+        <v>0.1021641127823933</v>
       </c>
       <c r="F21">
-        <v>5.021275136902545</v>
+        <v>4.93233263314292</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0006201687440788139</v>
       </c>
       <c r="H21">
-        <v>3.940991139944316</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.03913142569302508</v>
+        <v>3.869489646021194</v>
       </c>
       <c r="J21">
-        <v>15.13829615314231</v>
+        <v>0.03910109346683832</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.03668611658028</v>
       </c>
       <c r="L21">
-        <v>8.761105032763311</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>8.702981754547068</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.01778493019398875</v>
+        <v>0.01559289872411806</v>
       </c>
       <c r="D22">
-        <v>0.1593186405680527</v>
+        <v>0.1507269134682474</v>
       </c>
       <c r="E22">
-        <v>0.1108275744845244</v>
+        <v>0.109956360655481</v>
       </c>
       <c r="F22">
-        <v>5.743815697416494</v>
+        <v>5.636031603158813</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006012811837867811</v>
       </c>
       <c r="H22">
-        <v>4.507243275924708</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.04357907983129117</v>
+        <v>4.420916582496176</v>
       </c>
       <c r="J22">
-        <v>16.60379616160992</v>
+        <v>0.0435586862358921</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>16.48675803075525</v>
       </c>
       <c r="L22">
-        <v>9.622502588294964</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>9.555094803060115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01500964406555427</v>
+        <v>0.01302323544251571</v>
       </c>
       <c r="D23">
-        <v>0.1447727873336717</v>
+        <v>0.1368385852678529</v>
       </c>
       <c r="E23">
-        <v>0.1066529281179882</v>
+        <v>0.1057602598498661</v>
       </c>
       <c r="F23">
-        <v>5.345848280569896</v>
+        <v>5.248537442715588</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0006114936526929809</v>
       </c>
       <c r="H23">
-        <v>4.195424627421247</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.04112402929820824</v>
+        <v>4.117337268313193</v>
       </c>
       <c r="J23">
-        <v>15.80966107648288</v>
+        <v>0.04109983417364127</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.70121459628257</v>
       </c>
       <c r="L23">
-        <v>9.155393570034448</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>9.093159299417977</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.007293345098558834</v>
+        <v>0.005976063397945097</v>
       </c>
       <c r="D24">
-        <v>0.1001130376385575</v>
+        <v>0.09426881028471001</v>
       </c>
       <c r="E24">
-        <v>0.09156758932978093</v>
+        <v>0.09057836147635712</v>
       </c>
       <c r="F24">
-        <v>4.068443351439925</v>
+        <v>4.003502039305204</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0006477885601862146</v>
       </c>
       <c r="H24">
-        <v>3.193271632996897</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.03336157368029546</v>
+        <v>3.140672538207994</v>
       </c>
       <c r="J24">
-        <v>13.02537344768794</v>
+        <v>0.03329683685158713</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.94320617451208</v>
       </c>
       <c r="L24">
-        <v>7.523739640851375</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>7.477278550954424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.002578628183409482</v>
+        <v>0.001865205599836717</v>
       </c>
       <c r="D25">
-        <v>0.06536301901374486</v>
+        <v>0.0613411258446348</v>
       </c>
       <c r="E25">
-        <v>0.07631325973527225</v>
+        <v>0.07520063229140916</v>
       </c>
       <c r="F25">
-        <v>2.99402496177791</v>
+        <v>2.95610347151711</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0006842082816118642</v>
       </c>
       <c r="H25">
-        <v>2.348093142655301</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.02710695617218839</v>
+        <v>2.316800721460609</v>
       </c>
       <c r="J25">
-        <v>10.31630315776985</v>
+        <v>0.02697009181694554</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>10.25565274051036</v>
       </c>
       <c r="L25">
-        <v>5.944934979123587</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>5.911323809181624</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_44/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0005375012682176106</v>
+        <v>0.09597413655588838</v>
       </c>
       <c r="D2">
-        <v>0.0433534596226437</v>
+        <v>0.01997902261462059</v>
       </c>
       <c r="E2">
-        <v>0.06439760895481683</v>
+        <v>0.0142325330200781</v>
       </c>
       <c r="F2">
-        <v>2.332029547985812</v>
+        <v>2.184401562643629</v>
       </c>
       <c r="G2">
-        <v>0.000710099837239545</v>
+        <v>0.0007513184297939235</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.824257494431748</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02340922774247467</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>8.416061388571364</v>
+        <v>7.621335558321135</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.05980616651257975</v>
       </c>
       <c r="M2">
-        <v>4.844343198534744</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>5.02589013469543</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.741211741205419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0003155903649636471</v>
+        <v>0.09249947893856358</v>
       </c>
       <c r="D3">
-        <v>0.03361622602994174</v>
+        <v>0.02219041266046062</v>
       </c>
       <c r="E3">
-        <v>0.05728839061767133</v>
+        <v>0.016452292143184</v>
       </c>
       <c r="F3">
-        <v>1.968490751507716</v>
+        <v>1.913515458644454</v>
       </c>
       <c r="G3">
-        <v>0.0007275067685071912</v>
+        <v>0.0007681910338591669</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.536413687096086</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0214621168058553</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>7.222685680932869</v>
+        <v>6.558469499229773</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.05508491312549779</v>
       </c>
       <c r="M3">
-        <v>4.154364834782498</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>4.331894734955242</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.531981662000817</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0004276124903483947</v>
+        <v>0.09091354645575223</v>
       </c>
       <c r="D4">
-        <v>0.0285187374423117</v>
+        <v>0.02446043271041276</v>
       </c>
       <c r="E4">
-        <v>0.05300057602325836</v>
+        <v>0.0179009997316073</v>
       </c>
       <c r="F4">
-        <v>1.767090320768574</v>
+        <v>1.765435573246364</v>
       </c>
       <c r="G4">
-        <v>0.0007382276543218681</v>
+        <v>0.0007786189840653279</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.376520319866174</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02044509125039262</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>6.508363508179144</v>
+        <v>5.920896277065964</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.05227165415721302</v>
       </c>
       <c r="M4">
-        <v>3.742225001233265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>3.916353682155517</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.41944820761168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0005255829633847853</v>
+        <v>0.09038884225990529</v>
       </c>
       <c r="D5">
-        <v>0.02662427224782959</v>
+        <v>0.02558345218556113</v>
       </c>
       <c r="E5">
-        <v>0.05126936071379617</v>
+        <v>0.01851166269861437</v>
       </c>
       <c r="F5">
-        <v>1.689609669412135</v>
+        <v>1.709008225670743</v>
       </c>
       <c r="G5">
-        <v>0.0007426170245121352</v>
+        <v>0.0007828958361917222</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.314902968229234</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02006935641537666</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>6.220954591288915</v>
+        <v>5.664116997660585</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.0511436518386148</v>
       </c>
       <c r="M5">
-        <v>3.576589147988045</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3.749168618778484</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.377014644246344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0005447520861725508</v>
+        <v>0.09030863722496463</v>
       </c>
       <c r="D6">
-        <v>0.02631974233165124</v>
+        <v>0.02578107165811261</v>
       </c>
       <c r="E6">
-        <v>0.05098277934492401</v>
+        <v>0.01861425607658429</v>
       </c>
       <c r="F6">
-        <v>1.676998270862256</v>
+        <v>1.699857502237293</v>
       </c>
       <c r="G6">
-        <v>0.0007433474332744457</v>
+        <v>0.0007836079267049307</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.304867311600091</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02000914394361075</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>6.173428403594841</v>
+        <v>5.621642957107753</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.05095737918870924</v>
       </c>
       <c r="M6">
-        <v>3.549210174016622</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3.721524291138948</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.370160225983867</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0004287338445783107</v>
+        <v>0.09090599721266557</v>
       </c>
       <c r="D7">
-        <v>0.02849249377182161</v>
+        <v>0.02447481403768492</v>
       </c>
       <c r="E7">
-        <v>0.05297716704530941</v>
+        <v>0.01790915465658749</v>
       </c>
       <c r="F7">
-        <v>1.76602786249066</v>
+        <v>1.764659523535755</v>
       </c>
       <c r="G7">
-        <v>0.0007382867532182719</v>
+        <v>0.0007786765399885247</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.375675819089508</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02043987458560714</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>6.50447363048653</v>
+        <v>5.917421859772134</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.05225637067073663</v>
       </c>
       <c r="M7">
-        <v>3.739982499766157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3.914090867050007</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.418862766052371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.000402691487550122</v>
+        <v>0.09465184011474292</v>
       </c>
       <c r="D8">
-        <v>0.03978727453413455</v>
+        <v>0.02053135284923968</v>
       </c>
       <c r="E8">
-        <v>0.06192812345159382</v>
+        <v>0.01497927274561217</v>
       </c>
       <c r="F8">
-        <v>2.201560624230595</v>
+        <v>2.086770949922027</v>
       </c>
       <c r="G8">
-        <v>0.0007161030070698211</v>
+        <v>0.0007571287033303306</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.721051488992316</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02269672242863052</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>8.00013624509441</v>
+        <v>7.251251747095495</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.05815847428850418</v>
       </c>
       <c r="M8">
-        <v>4.603666097731121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>4.784071957256572</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.665378365761796</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.002921155621235183</v>
+        <v>0.1072533984895614</v>
       </c>
       <c r="D9">
-        <v>0.07121552319308933</v>
+        <v>0.02184966197813054</v>
       </c>
       <c r="E9">
-        <v>0.08028185237671082</v>
+        <v>0.00998584458890317</v>
       </c>
       <c r="F9">
-        <v>3.280646983908923</v>
+        <v>2.901307846310914</v>
       </c>
       <c r="G9">
-        <v>0.0006721564182801161</v>
+        <v>0.0007148360337906752</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.572382912740679</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02889463096399325</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>11.13377903910202</v>
+        <v>10.02798931007408</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.07058541616404312</v>
       </c>
       <c r="M9">
-        <v>6.422052538464669</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>6.602635863202664</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.308307915363784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.007527628534415243</v>
+        <v>0.1214130622869192</v>
       </c>
       <c r="D10">
-        <v>0.1044754389002591</v>
+        <v>0.03179484697616886</v>
       </c>
       <c r="E10">
-        <v>0.09459953322443582</v>
+        <v>0.006908603622688414</v>
       </c>
       <c r="F10">
-        <v>4.311176517273196</v>
+        <v>3.682405664974652</v>
       </c>
       <c r="G10">
-        <v>0.0006382444834015893</v>
+        <v>0.0006826722543031893</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.382240045819998</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.035205471513855</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>13.66223530284199</v>
+        <v>12.24329921890322</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.08055040249936241</v>
       </c>
       <c r="M10">
-        <v>7.897671053840554</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>8.060099417336005</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.939786440393419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01065973938663456</v>
+        <v>0.1294898082035729</v>
       </c>
       <c r="D11">
-        <v>0.1234664577725511</v>
+        <v>0.03946831141749385</v>
       </c>
       <c r="E11">
-        <v>0.1014072990192716</v>
+        <v>0.005681667597040363</v>
       </c>
       <c r="F11">
-        <v>4.867564904624089</v>
+        <v>4.101454011990967</v>
       </c>
       <c r="G11">
-        <v>0.0006219866942147465</v>
+        <v>0.0006674470216367275</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.818708745704342</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.03869279409049042</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>14.89779352011269</v>
+        <v>13.31457724712413</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.08536626768189137</v>
       </c>
       <c r="M11">
-        <v>8.621499179371682</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>8.766936479131147</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>3.282561351989713</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01205458397998571</v>
+        <v>0.1328549041878517</v>
       </c>
       <c r="D12">
-        <v>0.131437554576479</v>
+        <v>0.04298096052018963</v>
       </c>
       <c r="E12">
-        <v>0.1040415330109461</v>
+        <v>0.005247469042619191</v>
       </c>
       <c r="F12">
-        <v>5.09564491374752</v>
+        <v>4.27232197258229</v>
       </c>
       <c r="G12">
-        <v>0.0006156477569201346</v>
+        <v>0.0006615519853741957</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.997511445021601</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.04013235948053051</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>15.38265568918075</v>
+        <v>13.73250301356455</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.08724268108456812</v>
       </c>
       <c r="M12">
-        <v>8.906050070298591</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>9.043048884157571</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>3.422981261076856</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01174361631003684</v>
+        <v>0.1321150849409918</v>
       </c>
       <c r="D13">
-        <v>0.1296813690386003</v>
+        <v>0.04219429265593533</v>
       </c>
       <c r="E13">
-        <v>0.10347141889536</v>
+        <v>0.005339516872594707</v>
       </c>
       <c r="F13">
-        <v>5.045649139373296</v>
+        <v>4.234919218604944</v>
       </c>
       <c r="G13">
-        <v>0.000617022400863206</v>
+        <v>0.0006628282437327887</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.958322712527988</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0398164015630087</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>15.27737820038811</v>
+        <v>13.64188735798891</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08683597663700482</v>
       </c>
       <c r="M13">
-        <v>8.844241520585228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>8.983164191474003</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>3.39221340860108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01076986171374106</v>
+        <v>0.129760000897079</v>
       </c>
       <c r="D14">
-        <v>0.1241049383267807</v>
+        <v>0.03974402186717896</v>
       </c>
       <c r="E14">
-        <v>0.1016227918158812</v>
+        <v>0.005645296786684906</v>
       </c>
       <c r="F14">
-        <v>4.885945123552574</v>
+        <v>4.115245598713159</v>
       </c>
       <c r="G14">
-        <v>0.0006214693085018208</v>
+        <v>0.0006669649455758576</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.833120221315596</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.03880862177274658</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>14.93730846152843</v>
+        <v>13.34869247479944</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08551949964464001</v>
       </c>
       <c r="M14">
-        <v>8.644678585802581</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>8.789467852942863</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>3.293882062323959</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.0102028653442181</v>
+        <v>0.1283599702708216</v>
       </c>
       <c r="D15">
-        <v>0.120799251047373</v>
+        <v>0.03832785305054642</v>
       </c>
       <c r="E15">
-        <v>0.1004982883574712</v>
+        <v>0.005836757520627067</v>
       </c>
       <c r="F15">
-        <v>4.790566394784832</v>
+        <v>4.043638715931536</v>
       </c>
       <c r="G15">
-        <v>0.0006241670472832814</v>
+        <v>0.0006694803177931995</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.758331440151338</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.03820794710440367</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>14.73139298418238</v>
+        <v>13.17081089911431</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08472041955372589</v>
       </c>
       <c r="M15">
-        <v>8.523909636607243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>8.672001011311011</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>3.235130207818258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.007348292260488165</v>
+        <v>0.1209236477682794</v>
       </c>
       <c r="D16">
-        <v>0.1033289266508248</v>
+        <v>0.03136854776774101</v>
       </c>
       <c r="E16">
-        <v>0.09416163354923412</v>
+        <v>0.006992695707552787</v>
       </c>
       <c r="F16">
-        <v>4.276940580376106</v>
+        <v>3.656534860545406</v>
       </c>
       <c r="G16">
-        <v>0.0006392854679124321</v>
+        <v>0.0006836518979066058</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.355367983568541</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.03499228951918099</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>13.58356472327335</v>
+        <v>12.17480871981829</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08024230758864093</v>
       </c>
       <c r="M16">
-        <v>7.851645166041862</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>8.014954071016717</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.918705367283096</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.005897166219185124</v>
+        <v>0.1168235784410427</v>
       </c>
       <c r="D17">
-        <v>0.09373034728248086</v>
+        <v>0.02799762706369791</v>
       </c>
       <c r="E17">
-        <v>0.09035816227833138</v>
+        <v>0.007749470574719197</v>
       </c>
       <c r="F17">
-        <v>3.987081664921163</v>
+        <v>3.437194786051322</v>
       </c>
       <c r="G17">
-        <v>0.0006483103585530614</v>
+        <v>0.000692166970027608</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.12777552482315</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0331954634847893</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>12.90404647286528</v>
+        <v>11.58195496628056</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.07757496489625026</v>
       </c>
       <c r="M17">
-        <v>7.454400690181274</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>7.624402373428381</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.740389625501862</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.00515536613940526</v>
+        <v>0.1146137937358986</v>
       </c>
       <c r="D18">
-        <v>0.08855518727931866</v>
+        <v>0.02634328461710567</v>
       </c>
       <c r="E18">
-        <v>0.08819717512685443</v>
+        <v>0.008200599752523186</v>
       </c>
       <c r="F18">
-        <v>3.828231644123349</v>
+        <v>3.316802470327133</v>
       </c>
       <c r="G18">
-        <v>0.0006534279308475588</v>
+        <v>0.000697012100872807</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.002983668054824</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.03221765215795713</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>12.52087293506816</v>
+        <v>11.24670284247901</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.07606648441644381</v>
       </c>
       <c r="M18">
-        <v>7.230638345521868</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>7.4037295278508</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.642849903001689</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.004918746400182528</v>
+        <v>0.1138893299477814</v>
       </c>
       <c r="D19">
-        <v>0.0868570487221092</v>
+        <v>0.02582825692157797</v>
       </c>
       <c r="E19">
-        <v>0.08746973613387965</v>
+        <v>0.00835592881457714</v>
       </c>
       <c r="F19">
-        <v>3.77568516004618</v>
+        <v>3.276955491349128</v>
       </c>
       <c r="G19">
-        <v>0.0006551495693536335</v>
+        <v>0.0006986446562688772</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.961692332591738</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.03189540825473358</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>12.39234029725489</v>
+        <v>11.13410044581033</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.0755598471016512</v>
       </c>
       <c r="M19">
-        <v>7.155617565770854</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>7.329640477724553</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.610622264423981</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.006041683755442229</v>
+        <v>0.1172442377847034</v>
       </c>
       <c r="D20">
-        <v>0.09471504657456364</v>
+        <v>0.02832609427335342</v>
       </c>
       <c r="E20">
-        <v>0.09076020318762801</v>
+        <v>0.007667236030494795</v>
       </c>
       <c r="F20">
-        <v>4.017095031393524</v>
+        <v>3.459928796441318</v>
       </c>
       <c r="G20">
-        <v>0.0006473576022124452</v>
+        <v>0.0006912662302863692</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.151348468735961</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.03338079518751869</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>12.97556081890448</v>
+        <v>11.64445190145324</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.07785617273236767</v>
       </c>
       <c r="M20">
-        <v>7.49618212644657</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>7.665554067713629</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.758835820244158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01104958704075809</v>
+        <v>0.1304427137831112</v>
       </c>
       <c r="D21">
-        <v>0.1257193717061114</v>
+        <v>0.04044570387352309</v>
       </c>
       <c r="E21">
-        <v>0.1021641127823933</v>
+        <v>0.005554601418019889</v>
       </c>
       <c r="F21">
-        <v>4.93233263314292</v>
+        <v>4.150035852883235</v>
       </c>
       <c r="G21">
-        <v>0.0006201687440788139</v>
+        <v>0.0006657538513610284</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.869489646021194</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.03910109346683832</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>15.03668611658028</v>
+        <v>13.4344474665275</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.08590463160305717</v>
       </c>
       <c r="M21">
-        <v>8.702981754547068</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>8.846110661064131</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>3.322449858435277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.01559289872411806</v>
+        <v>0.1409128262606885</v>
       </c>
       <c r="D22">
-        <v>0.1507269134682474</v>
+        <v>0.05203014453702082</v>
       </c>
       <c r="E22">
-        <v>0.109956360655481</v>
+        <v>0.00435552150892704</v>
       </c>
       <c r="F22">
-        <v>5.636031603158813</v>
+        <v>4.674497726351859</v>
       </c>
       <c r="G22">
-        <v>0.0006012811837867811</v>
+        <v>0.0006482897155123358</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.420916582496176</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0435586862358921</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>16.48675803075525</v>
+        <v>14.67819637451328</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.09148137464028139</v>
       </c>
       <c r="M22">
-        <v>9.555094803060115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>9.668601980909983</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>3.754815109031668</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01302323544251571</v>
+        <v>0.135124115079492</v>
       </c>
       <c r="D23">
-        <v>0.1368385852678529</v>
+        <v>0.04544223352709054</v>
       </c>
       <c r="E23">
-        <v>0.1057602598498661</v>
+        <v>0.004976417005711831</v>
       </c>
       <c r="F23">
-        <v>5.248537442715588</v>
+        <v>4.386511135198305</v>
       </c>
       <c r="G23">
-        <v>0.0006114936526929809</v>
+        <v>0.0006577026243619327</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.117337268313193</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.04109983417364127</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>15.70121459628257</v>
+        <v>14.00624623024459</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.08847076744521587</v>
       </c>
       <c r="M23">
-        <v>9.093159299417977</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>9.224014674879243</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>3.517015399342753</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.005976063397945097</v>
+        <v>0.1170536035430274</v>
       </c>
       <c r="D24">
-        <v>0.09426881028471001</v>
+        <v>0.02817672140000838</v>
       </c>
       <c r="E24">
-        <v>0.09057836147635712</v>
+        <v>0.007704364665146901</v>
       </c>
       <c r="F24">
-        <v>4.003502039305204</v>
+        <v>3.449633177106506</v>
       </c>
       <c r="G24">
-        <v>0.0006477885601862146</v>
+        <v>0.0006916736083688993</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.140672538207994</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.03329683685158713</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>12.94320617451208</v>
+        <v>11.61617985138201</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.07772896161784359</v>
       </c>
       <c r="M24">
-        <v>7.477278550954424</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>7.646937511716658</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.750480978253393</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.001865205599836717</v>
+        <v>0.1031341317011965</v>
       </c>
       <c r="D25">
-        <v>0.0613411258446348</v>
+        <v>0.02022757469172376</v>
       </c>
       <c r="E25">
-        <v>0.07520063229140916</v>
+        <v>0.01124462793668224</v>
       </c>
       <c r="F25">
-        <v>2.95610347151711</v>
+        <v>2.655200251953033</v>
       </c>
       <c r="G25">
-        <v>0.0006842082816118642</v>
+        <v>0.0007263746280591425</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.316800721460609</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02697009181694554</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>10.25565274051036</v>
+        <v>9.252811505583082</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.06710441396872113</v>
       </c>
       <c r="M25">
-        <v>5.911323809181624</v>
+        <v>6.093998814397935</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.111937682404999</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_44/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.09597413655588838</v>
+        <v>0.0626235817266263</v>
       </c>
       <c r="D2">
-        <v>0.01997902261462059</v>
+        <v>0.05382963885505632</v>
       </c>
       <c r="E2">
-        <v>0.0142325330200781</v>
+        <v>1.429410348567984</v>
       </c>
       <c r="F2">
-        <v>2.184401562643629</v>
+        <v>0.3613734774165209</v>
       </c>
       <c r="G2">
-        <v>0.0007513184297939235</v>
+        <v>0.0007744575339798766</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2522219736699114</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>7.621335558321135</v>
+        <v>5.429297455831033</v>
       </c>
       <c r="L2">
-        <v>0.05980616651257975</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>5.02589013469543</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.741211741205419</v>
+        <v>0.8979751321707141</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.09249947893856358</v>
+        <v>0.0546628972357226</v>
       </c>
       <c r="D3">
-        <v>0.02219041266046062</v>
+        <v>0.04769029753102672</v>
       </c>
       <c r="E3">
-        <v>0.016452292143184</v>
+        <v>1.225948628228252</v>
       </c>
       <c r="F3">
-        <v>1.913515458644454</v>
+        <v>0.330873202912997</v>
       </c>
       <c r="G3">
-        <v>0.0007681910338591669</v>
+        <v>0.0007794985258830887</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2321581219638738</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>6.558469499229773</v>
+        <v>4.728471758654905</v>
       </c>
       <c r="L3">
-        <v>0.05508491312549779</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>4.331894734955242</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.531981662000817</v>
+        <v>0.8455827881874001</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.09091354645575223</v>
+        <v>0.04977972016676091</v>
       </c>
       <c r="D4">
-        <v>0.02446043271041276</v>
+        <v>0.04392743695964185</v>
       </c>
       <c r="E4">
-        <v>0.0179009997316073</v>
+        <v>1.103553233491922</v>
       </c>
       <c r="F4">
-        <v>1.765435573246364</v>
+        <v>0.3138067650870582</v>
       </c>
       <c r="G4">
-        <v>0.0007786189840653279</v>
+        <v>0.0007826749876921586</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.2210954519228778</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>5.920896277065964</v>
+        <v>4.298973681492726</v>
       </c>
       <c r="L4">
-        <v>0.05227165415721302</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>3.916353682155517</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.41944820761168</v>
+        <v>0.8189965699745727</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.09038884225990529</v>
+        <v>0.04779017224718274</v>
       </c>
       <c r="D5">
-        <v>0.02558345218556113</v>
+        <v>0.0423950320427906</v>
       </c>
       <c r="E5">
-        <v>0.01851166269861437</v>
+        <v>1.054214448424943</v>
       </c>
       <c r="F5">
-        <v>1.709008225670743</v>
+        <v>0.3072361820320779</v>
       </c>
       <c r="G5">
-        <v>0.0007828958361917222</v>
+        <v>0.0007839906530664101</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2168780699896971</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>5.664116997660585</v>
+        <v>4.124072468332201</v>
       </c>
       <c r="L5">
-        <v>0.0511436518386148</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>3.749168618778484</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.377014644246344</v>
+        <v>0.809456929277701</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.09030863722496463</v>
+        <v>0.0474598105363313</v>
       </c>
       <c r="D6">
-        <v>0.02578107165811261</v>
+        <v>0.04214061821843273</v>
       </c>
       <c r="E6">
-        <v>0.01861425607658429</v>
+        <v>1.046051593197888</v>
       </c>
       <c r="F6">
-        <v>1.699857502237293</v>
+        <v>0.3061674050480008</v>
       </c>
       <c r="G6">
-        <v>0.0007836079267049307</v>
+        <v>0.0007842104228399913</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.216194631552284</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>5.621642957107753</v>
+        <v>4.095035419675412</v>
       </c>
       <c r="L6">
-        <v>0.05095737918870924</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>3.721524291138948</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.370160225983867</v>
+        <v>0.8079480043332126</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.09090599721266557</v>
+        <v>0.04975288787268539</v>
       </c>
       <c r="D7">
-        <v>0.02447481403768492</v>
+        <v>0.04390676726733034</v>
       </c>
       <c r="E7">
-        <v>0.01790915465658749</v>
+        <v>1.102885776951041</v>
       </c>
       <c r="F7">
-        <v>1.764659523535755</v>
+        <v>0.3137166392285948</v>
       </c>
       <c r="G7">
-        <v>0.0007786765399885247</v>
+        <v>0.0007826926443029171</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.2210374297328457</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>5.917421859772134</v>
+        <v>4.296614508201515</v>
       </c>
       <c r="L7">
-        <v>0.05225637067073663</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>3.914090867050007</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.418862766052371</v>
+        <v>0.8188628129612567</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.09465184011474292</v>
+        <v>0.05987725515554132</v>
       </c>
       <c r="D8">
-        <v>0.02053135284923968</v>
+        <v>0.05171095381846413</v>
       </c>
       <c r="E8">
-        <v>0.01497927274561217</v>
+        <v>1.358669508964383</v>
       </c>
       <c r="F8">
-        <v>2.086770949922027</v>
+        <v>0.3504913765865396</v>
       </c>
       <c r="G8">
-        <v>0.0007571287033303306</v>
+        <v>0.0007761792968986244</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.2450274029622648</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>7.251251747095495</v>
+        <v>5.187432927191082</v>
       </c>
       <c r="L8">
-        <v>0.05815847428850418</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>4.784071957256572</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.665378365761796</v>
+        <v>0.8786832542736391</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1072533984895614</v>
+        <v>0.07980900945082681</v>
       </c>
       <c r="D9">
-        <v>0.02184966197813054</v>
+        <v>0.06710458184116419</v>
       </c>
       <c r="E9">
-        <v>0.00998584458890317</v>
+        <v>1.88530161372212</v>
       </c>
       <c r="F9">
-        <v>2.901307846310914</v>
+        <v>0.4374242848226899</v>
       </c>
       <c r="G9">
-        <v>0.0007148360337906752</v>
+        <v>0.0007640122433335923</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.3032779158158689</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.02798931007408</v>
+        <v>6.944893499782097</v>
       </c>
       <c r="L9">
-        <v>0.07058541616404312</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>6.602635863202664</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.308307915363784</v>
+        <v>1.045647425243914</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1214130622869192</v>
+        <v>0.09456375693592634</v>
       </c>
       <c r="D10">
-        <v>0.03179484697616886</v>
+        <v>0.07852742025951187</v>
       </c>
       <c r="E10">
-        <v>0.006908603622688414</v>
+        <v>2.295343138382222</v>
       </c>
       <c r="F10">
-        <v>3.682405664974652</v>
+        <v>0.5128289183902623</v>
       </c>
       <c r="G10">
-        <v>0.0006826722543031893</v>
+        <v>0.0007553818520245783</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.3547923838157772</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.24329921890322</v>
+        <v>8.24902890644006</v>
       </c>
       <c r="L10">
-        <v>0.08055040249936241</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>8.060099417336005</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.939786440393419</v>
+        <v>1.206776482989056</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1294898082035729</v>
+        <v>0.1013160791570442</v>
       </c>
       <c r="D11">
-        <v>0.03946831141749385</v>
+        <v>0.08376380623250412</v>
       </c>
       <c r="E11">
-        <v>0.005681667597040363</v>
+        <v>2.488969458095298</v>
       </c>
       <c r="F11">
-        <v>4.101454011990967</v>
+        <v>0.5502632179886788</v>
       </c>
       <c r="G11">
-        <v>0.0006674470216367275</v>
+        <v>0.0007515074986413598</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.3805931650863457</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.31457724712413</v>
+        <v>8.846766394422843</v>
       </c>
       <c r="L11">
-        <v>0.08536626768189137</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>8.766936479131147</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.282561351989713</v>
+        <v>1.290485674036574</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1328549041878517</v>
+        <v>0.1038802658575264</v>
       </c>
       <c r="D12">
-        <v>0.04298096052018963</v>
+        <v>0.08575390611595424</v>
       </c>
       <c r="E12">
-        <v>0.005247469042619191</v>
+        <v>2.563513751339002</v>
       </c>
       <c r="F12">
-        <v>4.27232197258229</v>
+        <v>0.564947966070612</v>
       </c>
       <c r="G12">
-        <v>0.0006615519853741957</v>
+        <v>0.0007500463829144605</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.390748092493908</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.73250301356455</v>
+        <v>9.073911094464734</v>
       </c>
       <c r="L12">
-        <v>0.08724268108456812</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>9.043048884157571</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.422981261076856</v>
+        <v>1.323875539594638</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1321150849409918</v>
+        <v>0.1033276764057689</v>
       </c>
       <c r="D13">
-        <v>0.04219429265593533</v>
+        <v>0.08532495769065207</v>
       </c>
       <c r="E13">
-        <v>0.005339516872594707</v>
+        <v>2.547401409008174</v>
       </c>
       <c r="F13">
-        <v>4.234919218604944</v>
+        <v>0.5617616894733857</v>
       </c>
       <c r="G13">
-        <v>0.0006628282437327887</v>
+        <v>0.0007503608169221014</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.3885431746353518</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.64188735798891</v>
+        <v>9.02495350279986</v>
       </c>
       <c r="L13">
-        <v>0.08683597663700482</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>8.983164191474003</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.39221340860108</v>
+        <v>1.316605897827714</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.129760000897079</v>
+        <v>0.1015268827102176</v>
       </c>
       <c r="D14">
-        <v>0.03974402186717896</v>
+        <v>0.08392737988642551</v>
       </c>
       <c r="E14">
-        <v>0.005645296786684906</v>
+        <v>2.495076504088161</v>
       </c>
       <c r="F14">
-        <v>4.115245598713159</v>
+        <v>0.5514607758961745</v>
       </c>
       <c r="G14">
-        <v>0.0006669649455758576</v>
+        <v>0.0007513871797878191</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.3814206340844635</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.34869247479944</v>
+        <v>8.865436879619779</v>
       </c>
       <c r="L14">
-        <v>0.08551949964464001</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>8.789467852942863</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.293882062323959</v>
+        <v>1.293197597402525</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1283599702708216</v>
+        <v>0.1004248311080573</v>
       </c>
       <c r="D15">
-        <v>0.03832785305054642</v>
+        <v>0.08307230574159519</v>
       </c>
       <c r="E15">
-        <v>0.005836757520627067</v>
+        <v>2.463191655013745</v>
       </c>
       <c r="F15">
-        <v>4.043638715931536</v>
+        <v>0.5452193371052516</v>
       </c>
       <c r="G15">
-        <v>0.0006694803177931995</v>
+        <v>0.0007520165957136494</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.3771093796188367</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.17081089911431</v>
+        <v>8.767836565591608</v>
       </c>
       <c r="L15">
-        <v>0.08472041955372589</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>8.672001011311011</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.235130207818258</v>
+        <v>1.279085692618025</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1209236477682794</v>
+        <v>0.09412340695122623</v>
       </c>
       <c r="D16">
-        <v>0.03136854776774101</v>
+        <v>0.07818613467109969</v>
       </c>
       <c r="E16">
-        <v>0.006992695707552787</v>
+        <v>2.282848583449336</v>
       </c>
       <c r="F16">
-        <v>3.656534860545406</v>
+        <v>0.5104504062060826</v>
       </c>
       <c r="G16">
-        <v>0.0006836518979066058</v>
+        <v>0.0007556359726452824</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.3531575492427095</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.17480871981829</v>
+        <v>8.210067959264336</v>
       </c>
       <c r="L16">
-        <v>0.08024230758864093</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>8.014954071016717</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.918705367283096</v>
+        <v>1.201531466894096</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1168235784410427</v>
+        <v>0.09026898417124585</v>
       </c>
       <c r="D17">
-        <v>0.02799762706369791</v>
+        <v>0.07519985226799974</v>
       </c>
       <c r="E17">
-        <v>0.007749470574719197</v>
+        <v>2.174166050718597</v>
       </c>
       <c r="F17">
-        <v>3.437194786051322</v>
+        <v>0.4899628751684446</v>
       </c>
       <c r="G17">
-        <v>0.000692166970027608</v>
+        <v>0.0007578686205008461</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.3391001009536794</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.58195496628056</v>
+        <v>7.869143992879458</v>
       </c>
       <c r="L17">
-        <v>0.07757496489625026</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>7.624402373428381</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.740389625501862</v>
+        <v>1.156752175614713</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1146137937358986</v>
+        <v>0.08805572230144776</v>
       </c>
       <c r="D18">
-        <v>0.02634328461710567</v>
+        <v>0.07348589791039473</v>
       </c>
       <c r="E18">
-        <v>0.008200599752523186</v>
+        <v>2.112309000159684</v>
       </c>
       <c r="F18">
-        <v>3.316802470327133</v>
+        <v>0.4784699435268394</v>
       </c>
       <c r="G18">
-        <v>0.000697012100872807</v>
+        <v>0.0007591577359467583</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.3312344504819222</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.24670284247901</v>
+        <v>7.673465237390815</v>
       </c>
       <c r="L18">
-        <v>0.07606648441644381</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>7.4037295278508</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.642849903001689</v>
+        <v>1.131963400782553</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1138893299477814</v>
+        <v>0.08730694419088536</v>
       </c>
       <c r="D19">
-        <v>0.02582825692157797</v>
+        <v>0.07290617324157012</v>
       </c>
       <c r="E19">
-        <v>0.00835592881457714</v>
+        <v>2.09147195752152</v>
       </c>
       <c r="F19">
-        <v>3.276955491349128</v>
+        <v>0.4746269194279833</v>
       </c>
       <c r="G19">
-        <v>0.0006986446562688772</v>
+        <v>0.000759595099561361</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.3286077566389025</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.13410044581033</v>
+        <v>7.607278177484375</v>
       </c>
       <c r="L19">
-        <v>0.0755598471016512</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>7.329640477724553</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.610622264423981</v>
+        <v>1.123730886292151</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1172442377847034</v>
+        <v>0.09067890121428945</v>
       </c>
       <c r="D20">
-        <v>0.02832609427335342</v>
+        <v>0.07551735687646044</v>
       </c>
       <c r="E20">
-        <v>0.007667236030494795</v>
+        <v>2.185666409057234</v>
       </c>
       <c r="F20">
-        <v>3.459928796441318</v>
+        <v>0.492113290042326</v>
       </c>
       <c r="G20">
-        <v>0.0006912662302863692</v>
+        <v>0.0007576304481217051</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.3405734834638565</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.64445190145324</v>
+        <v>7.905392288094959</v>
       </c>
       <c r="L20">
-        <v>0.07785617273236767</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>7.665554067713629</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.758835820244158</v>
+        <v>1.161417581860036</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1304427137831112</v>
+        <v>0.1020556111013349</v>
       </c>
       <c r="D21">
-        <v>0.04044570387352309</v>
+        <v>0.08433767476139309</v>
       </c>
       <c r="E21">
-        <v>0.005554601418019889</v>
+        <v>2.510410669037398</v>
       </c>
       <c r="F21">
-        <v>4.150035852883235</v>
+        <v>0.554472083362441</v>
       </c>
       <c r="G21">
-        <v>0.0006657538513610284</v>
+        <v>0.0007510855609200728</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.3835018763351812</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.4344474665275</v>
+        <v>8.91226793163105</v>
       </c>
       <c r="L21">
-        <v>0.08590463160305717</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>8.846110661064131</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.322449858435277</v>
+        <v>1.300025632330374</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1409128262606885</v>
+        <v>0.1095338632387239</v>
       </c>
       <c r="D22">
-        <v>0.05203014453702082</v>
+        <v>0.09014500287423033</v>
       </c>
       <c r="E22">
-        <v>0.00435552150892704</v>
+        <v>2.72989020385026</v>
       </c>
       <c r="F22">
-        <v>4.674497726351859</v>
+        <v>0.5982273495344401</v>
       </c>
       <c r="G22">
-        <v>0.0006482897155123358</v>
+        <v>0.0007468423951867798</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.4138249639707681</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.67819637451328</v>
+        <v>9.575033037509854</v>
       </c>
       <c r="L22">
-        <v>0.09148137464028139</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>9.668601980909983</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.754815109031668</v>
+        <v>1.400577270096079</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.135124115079492</v>
+        <v>0.1055381382166019</v>
       </c>
       <c r="D23">
-        <v>0.04544223352709054</v>
+        <v>0.08704108761472895</v>
       </c>
       <c r="E23">
-        <v>0.004976417005711831</v>
+        <v>2.612012546439118</v>
       </c>
       <c r="F23">
-        <v>4.386511135198305</v>
+        <v>0.5745786282800367</v>
       </c>
       <c r="G23">
-        <v>0.0006577026243619327</v>
+        <v>0.000749104425390273</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.397417509441496</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.00624623024459</v>
+        <v>9.220817181328357</v>
       </c>
       <c r="L23">
-        <v>0.08847076744521587</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>9.224014674879243</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.517015399342753</v>
+        <v>1.345929244733611</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1170536035430274</v>
+        <v>0.09049356942416864</v>
       </c>
       <c r="D24">
-        <v>0.02817672140000838</v>
+        <v>0.07537380411836381</v>
       </c>
       <c r="E24">
-        <v>0.007704364665146901</v>
+        <v>2.180465162092219</v>
       </c>
       <c r="F24">
-        <v>3.449633177106506</v>
+        <v>0.4911402021849369</v>
       </c>
       <c r="G24">
-        <v>0.0006916736083688993</v>
+        <v>0.0007577381084850054</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.3399066972231424</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.61617985138201</v>
+        <v>7.889003438972509</v>
       </c>
       <c r="L24">
-        <v>0.07772896161784359</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>7.646937511716658</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.750480978253393</v>
+        <v>1.159305390105857</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1031341317011965</v>
+        <v>0.07440242733761693</v>
       </c>
       <c r="D25">
-        <v>0.02022757469172376</v>
+        <v>0.06292499521656936</v>
       </c>
       <c r="E25">
-        <v>0.01124462793668224</v>
+        <v>1.739401104925548</v>
       </c>
       <c r="F25">
-        <v>2.655200251953033</v>
+        <v>0.4120763323424228</v>
       </c>
       <c r="G25">
-        <v>0.0007263746280591425</v>
+        <v>0.0007672448062405997</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.2861360528519583</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.252811505583082</v>
+        <v>6.46769307589534</v>
       </c>
       <c r="L25">
-        <v>0.06710441396872113</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>6.093998814397935</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.111937682404999</v>
+        <v>0.9943657311846721</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_44/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0626235817266263</v>
+        <v>0.02032577724713747</v>
       </c>
       <c r="D2">
-        <v>0.05382963885505632</v>
+        <v>0.02123905908371881</v>
       </c>
       <c r="E2">
-        <v>1.429410348567984</v>
+        <v>0.4213259698304483</v>
       </c>
       <c r="F2">
-        <v>0.3613734774165209</v>
+        <v>0.4876327782781402</v>
       </c>
       <c r="G2">
-        <v>0.0007744575339798766</v>
+        <v>0.002392444783948849</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2522219736699114</v>
+        <v>0.3601778416014767</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5.429297455831033</v>
+        <v>1.789648023738039</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.8979751321707141</v>
+        <v>1.581338832510752</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0546628972357226</v>
+        <v>0.01775018107716164</v>
       </c>
       <c r="D3">
-        <v>0.04769029753102672</v>
+        <v>0.01916381650632815</v>
       </c>
       <c r="E3">
-        <v>1.225948628228252</v>
+        <v>0.367491406866236</v>
       </c>
       <c r="F3">
-        <v>0.330873202912997</v>
+        <v>0.4891684632852105</v>
       </c>
       <c r="G3">
-        <v>0.0007794985258830887</v>
+        <v>0.002395574174240853</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2321581219638738</v>
+        <v>0.3621903871668408</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.728471758654905</v>
+        <v>1.565734647479871</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8455827881874001</v>
+        <v>1.601201355036835</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04977972016676091</v>
+        <v>0.01616243825415609</v>
       </c>
       <c r="D4">
-        <v>0.04392743695964185</v>
+        <v>0.01788506107078547</v>
       </c>
       <c r="E4">
-        <v>1.103553233491922</v>
+        <v>0.3345335130287737</v>
       </c>
       <c r="F4">
-        <v>0.3138067650870582</v>
+        <v>0.4906889377797654</v>
       </c>
       <c r="G4">
-        <v>0.0007826749876921586</v>
+        <v>0.002397593935047386</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2210954519228778</v>
+        <v>0.363861789042911</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4.298973681492726</v>
+        <v>1.42777541606057</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.8189965699745727</v>
+        <v>1.615355814903197</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.04779017224718274</v>
+        <v>0.01551386812438693</v>
       </c>
       <c r="D5">
-        <v>0.0423950320427906</v>
+        <v>0.01736285353879907</v>
       </c>
       <c r="E5">
-        <v>1.054214448424943</v>
+        <v>0.3211252723423286</v>
       </c>
       <c r="F5">
-        <v>0.3072361820320779</v>
+        <v>0.4914530216281534</v>
       </c>
       <c r="G5">
-        <v>0.0007839906530664101</v>
+        <v>0.002398441802841388</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2168780699896971</v>
+        <v>0.364651873610299</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>4.124072468332201</v>
+        <v>1.371439425201459</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.809456929277701</v>
+        <v>1.621613758707895</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0474598105363313</v>
+        <v>0.01540608088974693</v>
       </c>
       <c r="D6">
-        <v>0.04214061821843273</v>
+        <v>0.01727607585435464</v>
       </c>
       <c r="E6">
-        <v>1.046051593197888</v>
+        <v>0.3189001382564953</v>
       </c>
       <c r="F6">
-        <v>0.3061674050480008</v>
+        <v>0.4915886012312498</v>
       </c>
       <c r="G6">
-        <v>0.0007842104228399913</v>
+        <v>0.002398584090769971</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.216194631552284</v>
+        <v>0.3647896312779508</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4.095035419675412</v>
+        <v>1.362077933581986</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8079480043332126</v>
+        <v>1.622682395351859</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04975288787268539</v>
+        <v>0.01615369764623864</v>
       </c>
       <c r="D7">
-        <v>0.04390676726733034</v>
+        <v>0.01787802281591411</v>
       </c>
       <c r="E7">
-        <v>1.102885776951041</v>
+        <v>0.3343525967992065</v>
       </c>
       <c r="F7">
-        <v>0.3137166392285948</v>
+        <v>0.4906986584976281</v>
       </c>
       <c r="G7">
-        <v>0.0007826926443029171</v>
+        <v>0.002397605269209215</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2210374297328457</v>
+        <v>0.3638720039411254</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.296614508201515</v>
+        <v>1.427016116684854</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8188628129612567</v>
+        <v>1.6154382317402</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.05987725515554132</v>
+        <v>0.01943904345171177</v>
       </c>
       <c r="D8">
-        <v>0.05171095381846413</v>
+        <v>0.02052448209887103</v>
       </c>
       <c r="E8">
-        <v>1.358669508964383</v>
+        <v>0.4027425350159177</v>
       </c>
       <c r="F8">
-        <v>0.3504913765865396</v>
+        <v>0.4880419556984066</v>
       </c>
       <c r="G8">
-        <v>0.0007761792968986244</v>
+        <v>0.002393503443098704</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2450274029622648</v>
+        <v>0.3607809879871127</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>5.187432927191082</v>
+        <v>1.712543151808347</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.8786832542736391</v>
+        <v>1.587779277709274</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.07980900945082681</v>
+        <v>0.02583021528175777</v>
       </c>
       <c r="D9">
-        <v>0.06710458184116419</v>
+        <v>0.02567665227438454</v>
       </c>
       <c r="E9">
-        <v>1.88530161372212</v>
+        <v>0.5377174667796822</v>
       </c>
       <c r="F9">
-        <v>0.4374242848226899</v>
+        <v>0.4874494698667888</v>
       </c>
       <c r="G9">
-        <v>0.0007640122433335923</v>
+        <v>0.002386236102483437</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3032779158158689</v>
+        <v>0.3582032168834957</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>6.944893499782097</v>
+        <v>2.268581320764724</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.045647425243914</v>
+        <v>1.549203012412619</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.09456375693592634</v>
+        <v>0.03049327248243117</v>
       </c>
       <c r="D10">
-        <v>0.07852742025951187</v>
+        <v>0.02943755942490611</v>
       </c>
       <c r="E10">
-        <v>2.295343138382222</v>
+        <v>0.6375500115541968</v>
       </c>
       <c r="F10">
-        <v>0.5128289183902623</v>
+        <v>0.4898778973921623</v>
       </c>
       <c r="G10">
-        <v>0.0007553818520245783</v>
+        <v>0.002381364900722422</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3547923838157772</v>
+        <v>0.3584705881495367</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.24902890644006</v>
+        <v>2.674637379837236</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.206776482989056</v>
+        <v>1.530577271541091</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1013160791570442</v>
+        <v>0.03260733512811953</v>
       </c>
       <c r="D11">
-        <v>0.08376380623250412</v>
+        <v>0.03114291724421037</v>
       </c>
       <c r="E11">
-        <v>2.488969458095298</v>
+        <v>0.683142299547967</v>
       </c>
       <c r="F11">
-        <v>0.5502632179886788</v>
+        <v>0.4916150734416576</v>
       </c>
       <c r="G11">
-        <v>0.0007515074986413598</v>
+        <v>0.002379249408727952</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3805931650863457</v>
+        <v>0.3590696337742472</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>8.846766394422843</v>
+        <v>2.858809868285618</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.290485674036574</v>
+        <v>1.524249945455779</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1038802658575264</v>
+        <v>0.03340681471956941</v>
       </c>
       <c r="D12">
-        <v>0.08575390611595424</v>
+        <v>0.03178787105852621</v>
       </c>
       <c r="E12">
-        <v>2.563513751339002</v>
+        <v>0.7004348704457755</v>
       </c>
       <c r="F12">
-        <v>0.564947966070612</v>
+        <v>0.4923646880601567</v>
       </c>
       <c r="G12">
-        <v>0.0007500463829144605</v>
+        <v>0.002378462686832079</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.390748092493908</v>
+        <v>0.3593657785753948</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.073911094464734</v>
+        <v>2.928470612674744</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.323875539594638</v>
+        <v>1.522165437309695</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1033276764057689</v>
+        <v>0.03323468065406132</v>
       </c>
       <c r="D13">
-        <v>0.08532495769065207</v>
+        <v>0.0316490061365613</v>
       </c>
       <c r="E13">
-        <v>2.547401409008174</v>
+        <v>0.6967093363857941</v>
       </c>
       <c r="F13">
-        <v>0.5617616894733857</v>
+        <v>0.4921991497209248</v>
       </c>
       <c r="G13">
-        <v>0.0007503608169221014</v>
+        <v>0.002378631483847204</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3885431746353518</v>
+        <v>0.359298906072425</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.02495350279986</v>
+        <v>2.913471592874373</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.316605897827714</v>
+        <v>1.522600471347346</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1015268827102176</v>
+        <v>0.03267313044707976</v>
       </c>
       <c r="D14">
-        <v>0.08392737988642551</v>
+        <v>0.03119599479208546</v>
       </c>
       <c r="E14">
-        <v>2.495076504088161</v>
+        <v>0.6845644008646588</v>
       </c>
       <c r="F14">
-        <v>0.5514607758961745</v>
+        <v>0.4916749004168679</v>
       </c>
       <c r="G14">
-        <v>0.0007513871797878191</v>
+        <v>0.002379184397188539</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3814206340844635</v>
+        <v>0.359092605214208</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>8.865436879619779</v>
+        <v>2.86454254809064</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.293197597402525</v>
+        <v>1.524072191462494</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1004248311080573</v>
+        <v>0.03232902430035267</v>
       </c>
       <c r="D15">
-        <v>0.08307230574159519</v>
+        <v>0.03091840331019569</v>
       </c>
       <c r="E15">
-        <v>2.463191655013745</v>
+        <v>0.677128957343399</v>
       </c>
       <c r="F15">
-        <v>0.5452193371052516</v>
+        <v>0.4913657603389083</v>
       </c>
       <c r="G15">
-        <v>0.0007520165957136494</v>
+        <v>0.002379524941759267</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3771093796188367</v>
+        <v>0.3589752840150169</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.767836565591608</v>
+        <v>2.834561406717455</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.279085692618025</v>
+        <v>1.525014319145725</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.09412340695122623</v>
+        <v>0.03035496576671903</v>
       </c>
       <c r="D16">
-        <v>0.07818613467109969</v>
+        <v>0.02932599641400202</v>
       </c>
       <c r="E16">
-        <v>2.282848583449336</v>
+        <v>0.6345742142698469</v>
       </c>
       <c r="F16">
-        <v>0.5104504062060826</v>
+        <v>0.4897771671595947</v>
       </c>
       <c r="G16">
-        <v>0.0007556359726452824</v>
+        <v>0.002381505167782005</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3531575492427095</v>
+        <v>0.3584411012620023</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.210067959264336</v>
+        <v>2.662590053372185</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.201531466894096</v>
+        <v>1.531034206698422</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.09026898417124585</v>
+        <v>0.02914207804269608</v>
       </c>
       <c r="D17">
-        <v>0.07519985226799974</v>
+        <v>0.02834767118086035</v>
       </c>
       <c r="E17">
-        <v>2.174166050718597</v>
+        <v>0.6085153738775659</v>
       </c>
       <c r="F17">
-        <v>0.4899628751684446</v>
+        <v>0.4889652017213493</v>
       </c>
       <c r="G17">
-        <v>0.0007578686205008461</v>
+        <v>0.002382745645154062</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3391001009536794</v>
+        <v>0.3582361355644181</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>7.869143992879458</v>
+        <v>2.556949533697377</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.156752175614713</v>
+        <v>1.535278871788904</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.08805572230144776</v>
+        <v>0.02844378293032435</v>
       </c>
       <c r="D18">
-        <v>0.07348589791039473</v>
+        <v>0.027784449096103</v>
       </c>
       <c r="E18">
-        <v>2.112309000159684</v>
+        <v>0.5935436374164169</v>
       </c>
       <c r="F18">
-        <v>0.4784699435268394</v>
+        <v>0.4885576619796481</v>
       </c>
       <c r="G18">
-        <v>0.0007591577359467583</v>
+        <v>0.002383468593226979</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3312344504819222</v>
+        <v>0.3581631427284577</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>7.673465237390815</v>
+        <v>2.496136835243931</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.131963400782553</v>
+        <v>1.537922068243546</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.08730694419088536</v>
+        <v>0.02820723754516052</v>
       </c>
       <c r="D19">
-        <v>0.07290617324157012</v>
+        <v>0.02759366443708444</v>
       </c>
       <c r="E19">
-        <v>2.09147195752152</v>
+        <v>0.588477253406225</v>
       </c>
       <c r="F19">
-        <v>0.4746269194279833</v>
+        <v>0.4884298665677989</v>
       </c>
       <c r="G19">
-        <v>0.000759595099561361</v>
+        <v>0.002383714998026524</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3286077566389025</v>
+        <v>0.35814612017775</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>7.607278177484375</v>
+        <v>2.47553802506161</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.123730886292151</v>
+        <v>1.538851574019787</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.09067890121428945</v>
+        <v>0.02927126205291586</v>
       </c>
       <c r="D20">
-        <v>0.07551735687646044</v>
+        <v>0.02845186917772224</v>
       </c>
       <c r="E20">
-        <v>2.185666409057234</v>
+        <v>0.6112876462169936</v>
       </c>
       <c r="F20">
-        <v>0.492113290042326</v>
+        <v>0.4890454747088313</v>
       </c>
       <c r="G20">
-        <v>0.0007576304481217051</v>
+        <v>0.002382612615758424</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3405734834638565</v>
+        <v>0.3582533030651547</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>7.905392288094959</v>
+        <v>2.568200455008025</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.161417581860036</v>
+        <v>1.534806115272829</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1020556111013349</v>
+        <v>0.03283810068771231</v>
       </c>
       <c r="D21">
-        <v>0.08433767476139309</v>
+        <v>0.03132907797594697</v>
       </c>
       <c r="E21">
-        <v>2.510410669037398</v>
+        <v>0.6881308919734579</v>
       </c>
       <c r="F21">
-        <v>0.554472083362441</v>
+        <v>0.4918263874992519</v>
       </c>
       <c r="G21">
-        <v>0.0007510855609200728</v>
+        <v>0.002379021603751088</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3835018763351812</v>
+        <v>0.3591513148518573</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>8.91226793163105</v>
+        <v>2.878916427528338</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.300025632330374</v>
+        <v>1.523631433465567</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1095338632387239</v>
+        <v>0.03516298224225523</v>
       </c>
       <c r="D22">
-        <v>0.09014500287423033</v>
+        <v>0.03320465624219082</v>
       </c>
       <c r="E22">
-        <v>2.72989020385026</v>
+        <v>0.7385152336740219</v>
       </c>
       <c r="F22">
-        <v>0.5982273495344401</v>
+        <v>0.4941792492117756</v>
       </c>
       <c r="G22">
-        <v>0.0007468423951867798</v>
+        <v>0.002376758388999811</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4138249639707681</v>
+        <v>0.3601424476197295</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.575033037509854</v>
+        <v>3.081511544790715</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.400577270096079</v>
+        <v>1.518145254920057</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1055381382166019</v>
+        <v>0.03392273340070062</v>
       </c>
       <c r="D23">
-        <v>0.08704108761472895</v>
+        <v>0.03220408021786625</v>
       </c>
       <c r="E23">
-        <v>2.612012546439118</v>
+        <v>0.711608538389072</v>
       </c>
       <c r="F23">
-        <v>0.5745786282800367</v>
+        <v>0.492874219586497</v>
       </c>
       <c r="G23">
-        <v>0.000749104425390273</v>
+        <v>0.002377958673434809</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.397417509441496</v>
+        <v>0.3595762601598054</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.220817181328357</v>
+        <v>2.973427251444207</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.345929244733611</v>
+        <v>1.520906079744123</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.09049356942416864</v>
+        <v>0.02921286104300691</v>
       </c>
       <c r="D24">
-        <v>0.07537380411836381</v>
+        <v>0.02840476365790323</v>
       </c>
       <c r="E24">
-        <v>2.180465162092219</v>
+        <v>0.6100342714326672</v>
       </c>
       <c r="F24">
-        <v>0.4911402021849369</v>
+        <v>0.4890089987349313</v>
       </c>
       <c r="G24">
-        <v>0.0007577381084850054</v>
+        <v>0.002382672727873958</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3399066972231424</v>
+        <v>0.3582454020006978</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>7.889003438972509</v>
+        <v>2.563114157945506</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.159305390105857</v>
+        <v>1.535019216761242</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.07440242733761693</v>
+        <v>0.02410686264765616</v>
       </c>
       <c r="D25">
-        <v>0.06292499521656936</v>
+        <v>0.02428703176831704</v>
       </c>
       <c r="E25">
-        <v>1.739401104925548</v>
+        <v>0.5010963853915484</v>
       </c>
       <c r="F25">
-        <v>0.4120763323424228</v>
+        <v>0.4871103883826322</v>
       </c>
       <c r="G25">
-        <v>0.0007672448062405997</v>
+        <v>0.00238811953378284</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2861360528519583</v>
+        <v>0.3585237448484833</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6.46769307589534</v>
+        <v>2.118584186418104</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9943657311846721</v>
+        <v>1.557944780031164</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_44/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02032577724713747</v>
+        <v>0.06262358172656945</v>
       </c>
       <c r="D2">
-        <v>0.02123905908371881</v>
+        <v>0.05382963885494974</v>
       </c>
       <c r="E2">
-        <v>0.4213259698304483</v>
+        <v>1.429410348568013</v>
       </c>
       <c r="F2">
-        <v>0.4876327782781402</v>
+        <v>0.3613734774165209</v>
       </c>
       <c r="G2">
-        <v>0.002392444783948849</v>
+        <v>0.0007744575340387556</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3601778416014767</v>
+        <v>0.2522219736699114</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.789648023738039</v>
+        <v>5.429297455830863</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.581338832510752</v>
+        <v>0.8979751321706573</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01775018107716164</v>
+        <v>0.05466289723571549</v>
       </c>
       <c r="D3">
-        <v>0.01916381650632815</v>
+        <v>0.04769029753068565</v>
       </c>
       <c r="E3">
-        <v>0.367491406866236</v>
+        <v>1.22594862822821</v>
       </c>
       <c r="F3">
-        <v>0.4891684632852105</v>
+        <v>0.3308732029129828</v>
       </c>
       <c r="G3">
-        <v>0.002395574174240853</v>
+        <v>0.0007794985259003129</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3621903871668408</v>
+        <v>0.2321581219638702</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.565734647479871</v>
+        <v>4.728471758655019</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.601201355036835</v>
+        <v>0.8455827881874427</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01616243825415609</v>
+        <v>0.04977972016676091</v>
       </c>
       <c r="D4">
-        <v>0.01788506107078547</v>
+        <v>0.04392743695964896</v>
       </c>
       <c r="E4">
-        <v>0.3345335130287737</v>
+        <v>1.103553233491894</v>
       </c>
       <c r="F4">
-        <v>0.4906889377797654</v>
+        <v>0.3138067650870582</v>
       </c>
       <c r="G4">
-        <v>0.002397593935047386</v>
+        <v>0.000782674987692103</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.363861789042911</v>
+        <v>0.2210954519228778</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.42777541606057</v>
+        <v>4.298973681492669</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.615355814903197</v>
+        <v>0.8189965699745017</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01551386812438693</v>
+        <v>0.04779017224709747</v>
       </c>
       <c r="D5">
-        <v>0.01736285353879907</v>
+        <v>0.04239503204287587</v>
       </c>
       <c r="E5">
-        <v>0.3211252723423286</v>
+        <v>1.054214448424943</v>
       </c>
       <c r="F5">
-        <v>0.4914530216281534</v>
+        <v>0.3072361820320708</v>
       </c>
       <c r="G5">
-        <v>0.002398441802841388</v>
+        <v>0.0007839906531411746</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.364651873610299</v>
+        <v>0.216878069989729</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.371439425201459</v>
+        <v>4.124072468332088</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.621613758707895</v>
+        <v>0.809456929277701</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01540608088974693</v>
+        <v>0.04745981053656578</v>
       </c>
       <c r="D6">
-        <v>0.01727607585435464</v>
+        <v>0.04214061821860327</v>
       </c>
       <c r="E6">
-        <v>0.3189001382564953</v>
+        <v>1.046051593197902</v>
       </c>
       <c r="F6">
-        <v>0.4915886012312498</v>
+        <v>0.3061674050480079</v>
       </c>
       <c r="G6">
-        <v>0.002398584090769971</v>
+        <v>0.0007842104228575608</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3647896312779508</v>
+        <v>0.2161946315522805</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.362077933581986</v>
+        <v>4.095035419675582</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.622682395351859</v>
+        <v>0.8079480043332126</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01615369764623864</v>
+        <v>0.0497528878728275</v>
       </c>
       <c r="D7">
-        <v>0.01787802281591411</v>
+        <v>0.04390676726738008</v>
       </c>
       <c r="E7">
-        <v>0.3343525967992065</v>
+        <v>1.102885776951013</v>
       </c>
       <c r="F7">
-        <v>0.4906986584976281</v>
+        <v>0.3137166392285948</v>
       </c>
       <c r="G7">
-        <v>0.002397605269209215</v>
+        <v>0.0007826926443038556</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3638720039411254</v>
+        <v>0.2210374297328492</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.427016116684854</v>
+        <v>4.296614508201628</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.6154382317402</v>
+        <v>0.8188628129612567</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01943904345171177</v>
+        <v>0.05987725515568343</v>
       </c>
       <c r="D8">
-        <v>0.02052448209887103</v>
+        <v>0.05171095381846413</v>
       </c>
       <c r="E8">
-        <v>0.4027425350159177</v>
+        <v>1.358669508964383</v>
       </c>
       <c r="F8">
-        <v>0.4880419556984066</v>
+        <v>0.3504913765865396</v>
       </c>
       <c r="G8">
-        <v>0.002393503443098704</v>
+        <v>0.0007761792969548171</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3607809879871127</v>
+        <v>0.2450274029622364</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.712543151808347</v>
+        <v>5.187432927191253</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.587779277709274</v>
+        <v>0.8786832542737102</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02583021528175777</v>
+        <v>0.0798090094512105</v>
       </c>
       <c r="D9">
-        <v>0.02567665227438454</v>
+        <v>0.06710458184132762</v>
       </c>
       <c r="E9">
-        <v>0.5377174667796822</v>
+        <v>1.88530161372212</v>
       </c>
       <c r="F9">
-        <v>0.4874494698667888</v>
+        <v>0.4374242848226899</v>
       </c>
       <c r="G9">
-        <v>0.002386236102483437</v>
+        <v>0.0007640122433538023</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3582032168834957</v>
+        <v>0.3032779158158689</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.268581320764724</v>
+        <v>6.944893499782268</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.549203012412619</v>
+        <v>1.045647425243914</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.03049327248243117</v>
+        <v>0.09456375693571317</v>
       </c>
       <c r="D10">
-        <v>0.02943755942490611</v>
+        <v>0.07852742025927029</v>
       </c>
       <c r="E10">
-        <v>0.6375500115541968</v>
+        <v>2.295343138382194</v>
       </c>
       <c r="F10">
-        <v>0.4898778973921623</v>
+        <v>0.5128289183902695</v>
       </c>
       <c r="G10">
-        <v>0.002381364900722422</v>
+        <v>0.0007553818519733952</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3584705881495367</v>
+        <v>0.3547923838157558</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.674637379837236</v>
+        <v>8.24902890644006</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.530577271541091</v>
+        <v>1.206776482989142</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03260733512811953</v>
+        <v>0.1013160791568168</v>
       </c>
       <c r="D11">
-        <v>0.03114291724421037</v>
+        <v>0.08376380623224833</v>
       </c>
       <c r="E11">
-        <v>0.683142299547967</v>
+        <v>2.488969458095312</v>
       </c>
       <c r="F11">
-        <v>0.4916150734416576</v>
+        <v>0.5502632179886859</v>
       </c>
       <c r="G11">
-        <v>0.002379249408727952</v>
+        <v>0.0007515074986135795</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3590696337742472</v>
+        <v>0.3805931650863528</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.858809868285618</v>
+        <v>8.8467663944229</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.524249945455779</v>
+        <v>1.290485674036631</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03340681471956941</v>
+        <v>0.1038802658573843</v>
       </c>
       <c r="D12">
-        <v>0.03178787105852621</v>
+        <v>0.0857539061157695</v>
       </c>
       <c r="E12">
-        <v>0.7004348704457755</v>
+        <v>2.563513751338974</v>
       </c>
       <c r="F12">
-        <v>0.4923646880601567</v>
+        <v>0.5649479660706191</v>
       </c>
       <c r="G12">
-        <v>0.002378462686832079</v>
+        <v>0.0007500463829142887</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3593657785753948</v>
+        <v>0.390748092493908</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.928470612674744</v>
+        <v>9.073911094464563</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.522165437309695</v>
+        <v>1.323875539594525</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03323468065406132</v>
+        <v>0.103327676405641</v>
       </c>
       <c r="D13">
-        <v>0.0316490061365613</v>
+        <v>0.08532495769063786</v>
       </c>
       <c r="E13">
-        <v>0.6967093363857941</v>
+        <v>2.547401409008174</v>
       </c>
       <c r="F13">
-        <v>0.4921991497209248</v>
+        <v>0.5617616894733857</v>
       </c>
       <c r="G13">
-        <v>0.002378631483847204</v>
+        <v>0.0007503608169441948</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.359298906072425</v>
+        <v>0.3885431746353447</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.913471592874373</v>
+        <v>9.024953502799917</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.522600471347346</v>
+        <v>1.316605897827799</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03267313044707976</v>
+        <v>0.101526882710516</v>
       </c>
       <c r="D14">
-        <v>0.03119599479208546</v>
+        <v>0.08392737988652499</v>
       </c>
       <c r="E14">
-        <v>0.6845644008646588</v>
+        <v>2.495076504088118</v>
       </c>
       <c r="F14">
-        <v>0.4916749004168679</v>
+        <v>0.5514607758962029</v>
       </c>
       <c r="G14">
-        <v>0.002379184397188539</v>
+        <v>0.0007513871798148923</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.359092605214208</v>
+        <v>0.3814206340844493</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.86454254809064</v>
+        <v>8.865436879619892</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.524072191462494</v>
+        <v>1.293197597402468</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03232902430035267</v>
+        <v>0.1004248311078015</v>
       </c>
       <c r="D15">
-        <v>0.03091840331019569</v>
+        <v>0.0830723057417444</v>
       </c>
       <c r="E15">
-        <v>0.677128957343399</v>
+        <v>2.463191655013702</v>
       </c>
       <c r="F15">
-        <v>0.4913657603389083</v>
+        <v>0.5452193371052658</v>
       </c>
       <c r="G15">
-        <v>0.002379524941759267</v>
+        <v>0.0007520165957066759</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3589752840150169</v>
+        <v>0.3771093796188225</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.834561406717455</v>
+        <v>8.767836565591608</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.525014319145725</v>
+        <v>1.279085692617997</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.03035496576671903</v>
+        <v>0.09412340695112675</v>
       </c>
       <c r="D16">
-        <v>0.02932599641400202</v>
+        <v>0.07818613467120628</v>
       </c>
       <c r="E16">
-        <v>0.6345742142698469</v>
+        <v>2.282848583449322</v>
       </c>
       <c r="F16">
-        <v>0.4897771671595947</v>
+        <v>0.5104504062060968</v>
       </c>
       <c r="G16">
-        <v>0.002381505167782005</v>
+        <v>0.0007556359727519668</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3584411012620023</v>
+        <v>0.3531575492426953</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.662590053372185</v>
+        <v>8.210067959264165</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.531034206698422</v>
+        <v>1.201531466894096</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02914207804269608</v>
+        <v>0.090268984170919</v>
       </c>
       <c r="D17">
-        <v>0.02834767118086035</v>
+        <v>0.07519985226772974</v>
       </c>
       <c r="E17">
-        <v>0.6085153738775659</v>
+        <v>2.174166050718597</v>
       </c>
       <c r="F17">
-        <v>0.4889652017213493</v>
+        <v>0.4899628751684375</v>
       </c>
       <c r="G17">
-        <v>0.002382745645154062</v>
+        <v>0.0007578686204801849</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3582361355644181</v>
+        <v>0.3391001009536794</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.556949533697377</v>
+        <v>7.869143992879344</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.535278871788904</v>
+        <v>1.156752175614628</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02844378293032435</v>
+        <v>0.08805572230122038</v>
       </c>
       <c r="D18">
-        <v>0.027784449096103</v>
+        <v>0.07348589791020999</v>
       </c>
       <c r="E18">
-        <v>0.5935436374164169</v>
+        <v>2.112309000159684</v>
       </c>
       <c r="F18">
-        <v>0.4885576619796481</v>
+        <v>0.4784699435268394</v>
       </c>
       <c r="G18">
-        <v>0.002383468593226979</v>
+        <v>0.0007591577358126598</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3581631427284577</v>
+        <v>0.3312344504819222</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.496136835243931</v>
+        <v>7.673465237390701</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.537922068243546</v>
+        <v>1.131963400782553</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02820723754516052</v>
+        <v>0.08730694419101326</v>
       </c>
       <c r="D19">
-        <v>0.02759366443708444</v>
+        <v>0.0729061732416838</v>
       </c>
       <c r="E19">
-        <v>0.588477253406225</v>
+        <v>2.09147195752152</v>
       </c>
       <c r="F19">
-        <v>0.4884298665677989</v>
+        <v>0.4746269194280046</v>
       </c>
       <c r="G19">
-        <v>0.002383714998026524</v>
+        <v>0.0007595950995964995</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.35814612017775</v>
+        <v>0.3286077566388954</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.47553802506161</v>
+        <v>7.607278177484432</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.538851574019787</v>
+        <v>1.123730886292236</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02927126205291586</v>
+        <v>0.09067890121407629</v>
       </c>
       <c r="D20">
-        <v>0.02845186917772224</v>
+        <v>0.0755173568764036</v>
       </c>
       <c r="E20">
-        <v>0.6112876462169936</v>
+        <v>2.185666409057291</v>
       </c>
       <c r="F20">
-        <v>0.4890454747088313</v>
+        <v>0.4921132900423046</v>
       </c>
       <c r="G20">
-        <v>0.002382612615758424</v>
+        <v>0.0007576304481233575</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3582533030651547</v>
+        <v>0.3405734834638636</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.568200455008025</v>
+        <v>7.905392288095015</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.534806115272829</v>
+        <v>1.161417581860036</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03283810068771231</v>
+        <v>0.1020556111014486</v>
       </c>
       <c r="D21">
-        <v>0.03132907797594697</v>
+        <v>0.08433767476133625</v>
       </c>
       <c r="E21">
-        <v>0.6881308919734579</v>
+        <v>2.510410669037384</v>
       </c>
       <c r="F21">
-        <v>0.4918263874992519</v>
+        <v>0.5544720833624481</v>
       </c>
       <c r="G21">
-        <v>0.002379021603751088</v>
+        <v>0.0007510855608972969</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3591513148518573</v>
+        <v>0.3835018763352025</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.878916427528338</v>
+        <v>8.912267931630936</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.523631433465567</v>
+        <v>1.300025632330318</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03516298224225523</v>
+        <v>0.109533863238525</v>
       </c>
       <c r="D22">
-        <v>0.03320465624219082</v>
+        <v>0.09014500287411664</v>
       </c>
       <c r="E22">
-        <v>0.7385152336740219</v>
+        <v>2.729890203850289</v>
       </c>
       <c r="F22">
-        <v>0.4941792492117756</v>
+        <v>0.598227349534433</v>
       </c>
       <c r="G22">
-        <v>0.002376758388999811</v>
+        <v>0.0007468423951590011</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3601424476197295</v>
+        <v>0.4138249639707468</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.081511544790715</v>
+        <v>9.575033037509854</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.518145254920057</v>
+        <v>1.400577270096051</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.03392273340070062</v>
+        <v>0.1055381382166303</v>
       </c>
       <c r="D23">
-        <v>0.03220408021786625</v>
+        <v>0.08704108761462237</v>
       </c>
       <c r="E23">
-        <v>0.711608538389072</v>
+        <v>2.612012546439146</v>
       </c>
       <c r="F23">
-        <v>0.492874219586497</v>
+        <v>0.5745786282800509</v>
       </c>
       <c r="G23">
-        <v>0.002377958673434809</v>
+        <v>0.0007491044253842925</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3595762601598054</v>
+        <v>0.3974175094414889</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.973427251444207</v>
+        <v>9.220817181328528</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.520906079744123</v>
+        <v>1.345929244733696</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02921286104300691</v>
+        <v>0.0904935694243818</v>
       </c>
       <c r="D24">
-        <v>0.02840476365790323</v>
+        <v>0.07537380411824302</v>
       </c>
       <c r="E24">
-        <v>0.6100342714326672</v>
+        <v>2.180465162092204</v>
       </c>
       <c r="F24">
-        <v>0.4890089987349313</v>
+        <v>0.4911402021849156</v>
       </c>
       <c r="G24">
-        <v>0.002382672727873958</v>
+        <v>0.0007577381085059112</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3582454020006978</v>
+        <v>0.3399066972231424</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.563114157945506</v>
+        <v>7.889003438972509</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.535019216761242</v>
+        <v>1.159305390105914</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02410686264765616</v>
+        <v>0.07440242733754587</v>
       </c>
       <c r="D25">
-        <v>0.02428703176831704</v>
+        <v>0.06292499521673278</v>
       </c>
       <c r="E25">
-        <v>0.5010963853915484</v>
+        <v>1.739401104925562</v>
       </c>
       <c r="F25">
-        <v>0.4871103883826322</v>
+        <v>0.412076332342437</v>
       </c>
       <c r="G25">
-        <v>0.00238811953378284</v>
+        <v>0.0007672448061068904</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3585237448484833</v>
+        <v>0.2861360528519512</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.118584186418104</v>
+        <v>6.467693075895227</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.557944780031164</v>
+        <v>0.9943657311846437</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_44/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.06262358172656945</v>
+        <v>0.2257149278224091</v>
       </c>
       <c r="D2">
-        <v>0.05382963885494974</v>
+        <v>0.08866758093423499</v>
       </c>
       <c r="E2">
-        <v>1.429410348568013</v>
+        <v>0.09107649766932724</v>
       </c>
       <c r="F2">
-        <v>0.3613734774165209</v>
+        <v>0.3495416763153685</v>
       </c>
       <c r="G2">
-        <v>0.0007744575340387556</v>
+        <v>0.2497496473636076</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0004552056928219805</v>
       </c>
       <c r="I2">
-        <v>0.2522219736699114</v>
+        <v>0.0006474163135958833</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2497257491765339</v>
       </c>
       <c r="K2">
-        <v>5.429297455830863</v>
+        <v>0.355313586970972</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>3.653172380996352</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.07746332750760487</v>
       </c>
       <c r="O2">
-        <v>0.8979751321706573</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.8012467611278637</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.000575111027032</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.05466289723571549</v>
+        <v>0.2070840548839925</v>
       </c>
       <c r="D3">
-        <v>0.04769029753068565</v>
+        <v>0.07895538069117691</v>
       </c>
       <c r="E3">
-        <v>1.22594862822821</v>
+        <v>0.0852074022650342</v>
       </c>
       <c r="F3">
-        <v>0.3308732029129828</v>
+        <v>0.3378274009545308</v>
       </c>
       <c r="G3">
-        <v>0.0007794985259003129</v>
+        <v>0.246486420553893</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.001133838760216888</v>
       </c>
       <c r="I3">
-        <v>0.2321581219638702</v>
+        <v>0.0004173991181399828</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2531247234969953</v>
       </c>
       <c r="K3">
-        <v>4.728471758655019</v>
+        <v>0.3484390896887248</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>3.190653229408554</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.07396027051734677</v>
       </c>
       <c r="O3">
-        <v>0.8455827881874427</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.6987176717183559</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.000472083589784</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04977972016676091</v>
+        <v>0.1954184847772922</v>
       </c>
       <c r="D4">
-        <v>0.04392743695964896</v>
+        <v>0.07299428345645964</v>
       </c>
       <c r="E4">
-        <v>1.103553233491894</v>
+        <v>0.08156633147513404</v>
       </c>
       <c r="F4">
-        <v>0.3138067650870582</v>
+        <v>0.3311620702169407</v>
       </c>
       <c r="G4">
-        <v>0.000782674987692103</v>
+        <v>0.2449419565460431</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.001723954735734501</v>
       </c>
       <c r="I4">
-        <v>0.2210954519228778</v>
+        <v>0.0004843799022697937</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2555221008016204</v>
       </c>
       <c r="K4">
-        <v>4.298973681492669</v>
+        <v>0.3444808553867773</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2.906111517216885</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.07181834580462976</v>
       </c>
       <c r="O4">
-        <v>0.8189965699745017</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.6356039326461769</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.002024530138328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.04779017224709747</v>
+        <v>0.190128944758456</v>
       </c>
       <c r="D5">
-        <v>0.04239503204287587</v>
+        <v>0.07063376820779155</v>
       </c>
       <c r="E5">
-        <v>1.054214448424943</v>
+        <v>0.08000440473430004</v>
       </c>
       <c r="F5">
-        <v>0.3072361820320708</v>
+        <v>0.328232491427066</v>
       </c>
       <c r="G5">
-        <v>0.0007839906531411746</v>
+        <v>0.2441075287283425</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.002008047038265071</v>
       </c>
       <c r="I5">
-        <v>0.216878069989729</v>
+        <v>0.0006285456094103914</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.256409631871918</v>
       </c>
       <c r="K5">
-        <v>4.124072468332088</v>
+        <v>0.3424927819093853</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2.790115130832021</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.07097777270088201</v>
       </c>
       <c r="O5">
-        <v>0.809456929277701</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.6096782899800104</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.002032944574879</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.04745981053656578</v>
+        <v>0.1886624287643741</v>
       </c>
       <c r="D6">
-        <v>0.04214061821860327</v>
+        <v>0.07032597846195188</v>
       </c>
       <c r="E6">
-        <v>1.046051593197902</v>
+        <v>0.07966075598962519</v>
       </c>
       <c r="F6">
-        <v>0.3061674050480079</v>
+        <v>0.3273381947876075</v>
       </c>
       <c r="G6">
-        <v>0.0007842104228575608</v>
+        <v>0.2435907953944891</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.002060248044843727</v>
       </c>
       <c r="I6">
-        <v>0.2161946315522805</v>
+        <v>0.0007447476487758564</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2563599037861692</v>
       </c>
       <c r="K6">
-        <v>4.095035419675582</v>
+        <v>0.3416310625589745</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2.770978103086776</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.0708758171235111</v>
       </c>
       <c r="O6">
-        <v>0.8079480043332126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.6051712818643793</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.000819353615611</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0497528878728275</v>
+        <v>0.193744761024476</v>
       </c>
       <c r="D7">
-        <v>0.04390676726738008</v>
+        <v>0.07319319873338515</v>
       </c>
       <c r="E7">
-        <v>1.102885776951013</v>
+        <v>0.08131666088733525</v>
       </c>
       <c r="F7">
-        <v>0.3137166392285948</v>
+        <v>0.329987807774522</v>
       </c>
       <c r="G7">
-        <v>0.0007826926443038556</v>
+        <v>0.2438800116188773</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.001733888880957601</v>
       </c>
       <c r="I7">
-        <v>0.2210374297328492</v>
+        <v>0.0007141449779668463</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2549843708762793</v>
       </c>
       <c r="K7">
-        <v>4.296614508201628</v>
+        <v>0.3429911174644289</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2.904913601749115</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.07191010411218102</v>
       </c>
       <c r="O7">
-        <v>0.8188628129612567</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.6347078737717453</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.9986450692150015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.05987725515568343</v>
+        <v>0.2172021461785789</v>
       </c>
       <c r="D8">
-        <v>0.05171095381846413</v>
+        <v>0.08562711980479065</v>
       </c>
       <c r="E8">
-        <v>1.358669508964383</v>
+        <v>0.08875791877042616</v>
       </c>
       <c r="F8">
-        <v>0.3504913765865396</v>
+        <v>0.3438897913961938</v>
       </c>
       <c r="G8">
-        <v>0.0007761792969548171</v>
+        <v>0.2471394868738486</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0006567584279096872</v>
       </c>
       <c r="I8">
-        <v>0.2450274029622364</v>
+        <v>0.000793093364436892</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2501107638349467</v>
       </c>
       <c r="K8">
-        <v>5.187432927191253</v>
+        <v>0.3509529430209568</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>3.494288810152682</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.07639273861423135</v>
       </c>
       <c r="O8">
-        <v>0.8786832542737102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.7651938064563595</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.995743948890734</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0798090094512105</v>
+        <v>0.2642974907456335</v>
       </c>
       <c r="D9">
-        <v>0.06710458184132762</v>
+        <v>0.1096362817197729</v>
       </c>
       <c r="E9">
-        <v>1.88530161372212</v>
+        <v>0.1034766665851663</v>
       </c>
       <c r="F9">
-        <v>0.4374242848226899</v>
+        <v>0.3776598675902534</v>
       </c>
       <c r="G9">
-        <v>0.0007640122433538023</v>
+        <v>0.2593154808520524</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.423922751486728E-05</v>
       </c>
       <c r="I9">
-        <v>0.3032779158158689</v>
+        <v>0.002382174219009769</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2441053809134601</v>
       </c>
       <c r="K9">
-        <v>6.944893499782268</v>
+        <v>0.3714035444321837</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>4.645725754268597</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.08508947946478784</v>
       </c>
       <c r="O9">
-        <v>1.045647425243914</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.020961769491151</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.009695517301608</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.09456375693571317</v>
+        <v>0.2917887443540934</v>
       </c>
       <c r="D10">
-        <v>0.07852742025927029</v>
+        <v>0.1286571844655242</v>
       </c>
       <c r="E10">
-        <v>2.295343138382194</v>
+        <v>0.1096493505572589</v>
       </c>
       <c r="F10">
-        <v>0.5128289183902695</v>
+        <v>0.3995024663017261</v>
       </c>
       <c r="G10">
-        <v>0.0007553818519733952</v>
+        <v>0.2653994493283918</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0007129304502648814</v>
       </c>
       <c r="I10">
-        <v>0.3547923838157558</v>
+        <v>0.004859782345102204</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2385382230371249</v>
       </c>
       <c r="K10">
-        <v>8.24902890644006</v>
+        <v>0.3809547892015601</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>5.500300835559301</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.08652489190086499</v>
       </c>
       <c r="O10">
-        <v>1.206776482989142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.196455247431487</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.011421431278322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1013160791568168</v>
+        <v>0.2584862369419199</v>
       </c>
       <c r="D11">
-        <v>0.08376380623224833</v>
+        <v>0.1486547036362111</v>
       </c>
       <c r="E11">
-        <v>2.488969458095312</v>
+        <v>0.07987406537401576</v>
       </c>
       <c r="F11">
-        <v>0.5502632179886859</v>
+        <v>0.3611294907674463</v>
       </c>
       <c r="G11">
-        <v>0.0007515074986135795</v>
+        <v>0.2247540356533122</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01927075878037598</v>
       </c>
       <c r="I11">
-        <v>0.3805931650863528</v>
+        <v>0.006158966327631354</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2136336510936303</v>
       </c>
       <c r="K11">
-        <v>8.8467663944229</v>
+        <v>0.331001751086287</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>5.974887455184216</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.05588291305220849</v>
       </c>
       <c r="O11">
-        <v>1.290485674036631</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.173622076396953</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.873297830896675</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1038802658573843</v>
+        <v>0.2295902170429542</v>
       </c>
       <c r="D12">
-        <v>0.0857539061157695</v>
+        <v>0.1618565366327971</v>
       </c>
       <c r="E12">
-        <v>2.563513751338974</v>
+        <v>0.06144798038215527</v>
       </c>
       <c r="F12">
-        <v>0.5649479660706191</v>
+        <v>0.3267853581913016</v>
       </c>
       <c r="G12">
-        <v>0.0007500463829142887</v>
+        <v>0.1928307904985758</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05785886203192092</v>
       </c>
       <c r="I12">
-        <v>0.390748092493908</v>
+        <v>0.006327493628308645</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1954627698233082</v>
       </c>
       <c r="K12">
-        <v>9.073911094464563</v>
+        <v>0.2916624619136954</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.197974661444846</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.04712695835512237</v>
       </c>
       <c r="O12">
-        <v>1.323875539594525</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.118141024852392</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.7676382004941473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.103327676405641</v>
+        <v>0.2000394719712517</v>
       </c>
       <c r="D13">
-        <v>0.08532495769063786</v>
+        <v>0.1708214146644309</v>
       </c>
       <c r="E13">
-        <v>2.547401409008174</v>
+        <v>0.05028295989687948</v>
       </c>
       <c r="F13">
-        <v>0.5617616894733857</v>
+        <v>0.2915958829471919</v>
       </c>
       <c r="G13">
-        <v>0.0007503608169441948</v>
+        <v>0.1639345240070966</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1134469033021048</v>
       </c>
       <c r="I13">
-        <v>0.3885431746353447</v>
+        <v>0.005917311315758234</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1804330305931146</v>
       </c>
       <c r="K13">
-        <v>9.024953502799917</v>
+        <v>0.2558545012716387</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.238748658113764</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.05450326413784623</v>
       </c>
       <c r="O13">
-        <v>1.316605897827799</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>1.03388089555559</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.6748775058133276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.101526882710516</v>
+        <v>0.1792329576934719</v>
       </c>
       <c r="D14">
-        <v>0.08392737988652499</v>
+        <v>0.1752719138661831</v>
       </c>
       <c r="E14">
-        <v>2.495076504088118</v>
+        <v>0.0467706951974628</v>
       </c>
       <c r="F14">
-        <v>0.5514607758962029</v>
+        <v>0.2666372978860352</v>
       </c>
       <c r="G14">
-        <v>0.0007513871798148923</v>
+        <v>0.1452798276932157</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1626614299744489</v>
       </c>
       <c r="I14">
-        <v>0.3814206340844493</v>
+        <v>0.005462841029908461</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1713953365981453</v>
       </c>
       <c r="K14">
-        <v>8.865436879619892</v>
+        <v>0.2326017168223942</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.184606374416546</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.0690549280547863</v>
       </c>
       <c r="O14">
-        <v>1.293197597402468</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.9623189242995167</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.6163402949694046</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1004248311078015</v>
+        <v>0.1733635973989607</v>
       </c>
       <c r="D15">
-        <v>0.0830723057417444</v>
+        <v>0.1754495012955886</v>
       </c>
       <c r="E15">
-        <v>2.463191655013702</v>
+        <v>0.04646289639401835</v>
       </c>
       <c r="F15">
-        <v>0.5452193371052658</v>
+        <v>0.2599448480995008</v>
       </c>
       <c r="G15">
-        <v>0.0007520165957066759</v>
+        <v>0.1408621435649593</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1751122977365895</v>
       </c>
       <c r="I15">
-        <v>0.3771093796188225</v>
+        <v>0.005335457064250981</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1696143622183186</v>
       </c>
       <c r="K15">
-        <v>8.767836565591608</v>
+        <v>0.2270160892329365</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.132012543093879</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.07361623693926589</v>
       </c>
       <c r="O15">
-        <v>1.279085692617997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.9387284900080388</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.6032081889502905</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.09412340695112675</v>
+        <v>0.1676378674076915</v>
       </c>
       <c r="D16">
-        <v>0.07818613467120628</v>
+        <v>0.1652200903864838</v>
       </c>
       <c r="E16">
-        <v>2.282848583449322</v>
+        <v>0.04625810467229252</v>
       </c>
       <c r="F16">
-        <v>0.5104504062060968</v>
+        <v>0.2568738844313145</v>
       </c>
       <c r="G16">
-        <v>0.0007556359727519668</v>
+        <v>0.1432785299395718</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1620926401867848</v>
       </c>
       <c r="I16">
-        <v>0.3531575492426953</v>
+        <v>0.004377444560023314</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1744711151163827</v>
       </c>
       <c r="K16">
-        <v>8.210067959264165</v>
+        <v>0.2295668653329699</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5.752269136079235</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.07101472590757396</v>
       </c>
       <c r="O16">
-        <v>1.201531466894096</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.882375348591161</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.6182970747910161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.090268984170919</v>
+        <v>0.1738096800425524</v>
       </c>
       <c r="D17">
-        <v>0.07519985226772974</v>
+        <v>0.1550406508638389</v>
       </c>
       <c r="E17">
-        <v>2.174166050718597</v>
+        <v>0.04722617011495656</v>
       </c>
       <c r="F17">
-        <v>0.4899628751684375</v>
+        <v>0.2677208517700151</v>
       </c>
       <c r="G17">
-        <v>0.0007578686204801849</v>
+        <v>0.154896506953456</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1241842385269933</v>
       </c>
       <c r="I17">
-        <v>0.3391001009536794</v>
+        <v>0.003933602092608623</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1829733560263946</v>
       </c>
       <c r="K17">
-        <v>7.869143992879344</v>
+        <v>0.2435744461426879</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5.490743636321838</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.05988604526304897</v>
       </c>
       <c r="O17">
-        <v>1.156752175614628</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.8767463038111885</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.6606088965792765</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.08805572230122038</v>
+        <v>0.1932449176410671</v>
       </c>
       <c r="D18">
-        <v>0.07348589791020999</v>
+        <v>0.1437858712158544</v>
       </c>
       <c r="E18">
-        <v>2.112309000159684</v>
+        <v>0.05312980222130381</v>
       </c>
       <c r="F18">
-        <v>0.4784699435268394</v>
+        <v>0.2930709238549483</v>
       </c>
       <c r="G18">
-        <v>0.0007591577358126598</v>
+        <v>0.1774495807302685</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07133731026560497</v>
       </c>
       <c r="I18">
-        <v>0.3312344504819222</v>
+        <v>0.003566833519128565</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1963595557220259</v>
       </c>
       <c r="K18">
-        <v>7.673465237390701</v>
+        <v>0.2713111156215184</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5.301490846576144</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.04864650065795217</v>
       </c>
       <c r="O18">
-        <v>1.131963400782553</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.9149041890415788</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.7363903296164267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.08730694419101326</v>
+        <v>0.2219037455027006</v>
       </c>
       <c r="D19">
-        <v>0.0729061732416838</v>
+        <v>0.1333707701052589</v>
       </c>
       <c r="E19">
-        <v>2.09147195752152</v>
+        <v>0.06808325227218504</v>
       </c>
       <c r="F19">
-        <v>0.4746269194280046</v>
+        <v>0.3275986408583762</v>
       </c>
       <c r="G19">
-        <v>0.0007595950995964995</v>
+        <v>0.2075670693628666</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02616628182249769</v>
       </c>
       <c r="I19">
-        <v>0.3286077566388954</v>
+        <v>0.003786818707948392</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2127379437454806</v>
       </c>
       <c r="K19">
-        <v>7.607278177484432</v>
+        <v>0.3083502722513529</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5.185903828497942</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.05043030312279217</v>
       </c>
       <c r="O19">
-        <v>1.123730886292236</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.9856456882182982</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.8345265989855193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.09067890121407629</v>
+        <v>0.2794111244613049</v>
       </c>
       <c r="D20">
-        <v>0.0755173568764036</v>
+        <v>0.1244556766929463</v>
       </c>
       <c r="E20">
-        <v>2.185666409057291</v>
+        <v>0.1071555220994682</v>
       </c>
       <c r="F20">
-        <v>0.4921132900423046</v>
+        <v>0.3897963011318595</v>
       </c>
       <c r="G20">
-        <v>0.0007576304481233575</v>
+        <v>0.2601662424776023</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0004319793164042629</v>
       </c>
       <c r="I20">
-        <v>0.3405734834638636</v>
+        <v>0.004807421182251304</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2381068122490717</v>
       </c>
       <c r="K20">
-        <v>7.905392288095015</v>
+        <v>0.3735714300093917</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>5.277473495933407</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.08623897952285731</v>
       </c>
       <c r="O20">
-        <v>1.161417581860036</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.148159220673506</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.9992966894673145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1020556111014486</v>
+        <v>0.309231407836009</v>
       </c>
       <c r="D21">
-        <v>0.08433767476133625</v>
+        <v>0.1370844148907366</v>
       </c>
       <c r="E21">
-        <v>2.510410669037384</v>
+        <v>0.1187617181973728</v>
       </c>
       <c r="F21">
-        <v>0.5544720833624481</v>
+        <v>0.4170560108475883</v>
       </c>
       <c r="G21">
-        <v>0.0007510855608972969</v>
+        <v>0.2744342874772627</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.001151714024531736</v>
       </c>
       <c r="I21">
-        <v>0.3835018763352025</v>
+        <v>0.007082014560376493</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2388695555024611</v>
       </c>
       <c r="K21">
-        <v>8.912267931630936</v>
+        <v>0.3921627423972041</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>5.918256622851459</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.0952385427643101</v>
       </c>
       <c r="O21">
-        <v>1.300025632330318</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.301232605930949</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.031507938985655</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.109533863238525</v>
+        <v>0.3280130516911299</v>
       </c>
       <c r="D22">
-        <v>0.09014500287411664</v>
+        <v>0.1456584527632572</v>
       </c>
       <c r="E22">
-        <v>2.729890203850289</v>
+        <v>0.1244011212958149</v>
       </c>
       <c r="F22">
-        <v>0.598227349534433</v>
+        <v>0.4342198827401731</v>
       </c>
       <c r="G22">
-        <v>0.0007468423951590011</v>
+        <v>0.2831368969731898</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.001917984766495295</v>
       </c>
       <c r="I22">
-        <v>0.4138249639707468</v>
+        <v>0.008555490981255964</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2390908242445278</v>
       </c>
       <c r="K22">
-        <v>9.575033037509854</v>
+        <v>0.4033481759780173</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>6.341610002178015</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.09838063121020113</v>
       </c>
       <c r="O22">
-        <v>1.400577270096051</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.396081876927113</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.05065269542267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1055381382166303</v>
+        <v>0.31992687949122</v>
       </c>
       <c r="D23">
-        <v>0.08704108761462237</v>
+        <v>0.1407943974011658</v>
       </c>
       <c r="E23">
-        <v>2.612012546439146</v>
+        <v>0.1216622272496757</v>
       </c>
       <c r="F23">
-        <v>0.5745786282800509</v>
+        <v>0.4263208470494675</v>
       </c>
       <c r="G23">
-        <v>0.0007491044253842925</v>
+        <v>0.2796533745200591</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.001491687506365302</v>
       </c>
       <c r="I23">
-        <v>0.3974175094414889</v>
+        <v>0.007480842567823665</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2395638602828924</v>
       </c>
       <c r="K23">
-        <v>9.220817181328528</v>
+        <v>0.399056143852988</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>6.115198679735556</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.09656775839003728</v>
       </c>
       <c r="O23">
-        <v>1.345929244733696</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.346131971588036</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.044135478521866</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0904935694243818</v>
+        <v>0.2859291656465786</v>
       </c>
       <c r="D24">
-        <v>0.07537380411824302</v>
+        <v>0.122869170774635</v>
       </c>
       <c r="E24">
-        <v>2.180465162092204</v>
+        <v>0.1108331976096046</v>
       </c>
       <c r="F24">
-        <v>0.4911402021849156</v>
+        <v>0.3958032161965974</v>
       </c>
       <c r="G24">
-        <v>0.0007577381085059112</v>
+        <v>0.2658541070287015</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0003427993866933488</v>
       </c>
       <c r="I24">
-        <v>0.3399066972231424</v>
+        <v>0.004378658478087161</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2411428439283654</v>
       </c>
       <c r="K24">
-        <v>7.889003438972509</v>
+        <v>0.3808657743140458</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>5.258835802509736</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.08996699754868587</v>
       </c>
       <c r="O24">
-        <v>1.159305390105914</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.155947276661948</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.017709313029371</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.07440242733754587</v>
+        <v>0.2488211739206179</v>
       </c>
       <c r="D25">
-        <v>0.06292499521673278</v>
+        <v>0.1035610977593322</v>
       </c>
       <c r="E25">
-        <v>1.739401104925562</v>
+        <v>0.09911004807034729</v>
       </c>
       <c r="F25">
-        <v>0.412076332342437</v>
+        <v>0.3659568801125275</v>
       </c>
       <c r="G25">
-        <v>0.0007672448061068904</v>
+        <v>0.253679679617079</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.663190313139218E-05</v>
       </c>
       <c r="I25">
-        <v>0.2861360528519512</v>
+        <v>0.00212632938421109</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2444630603202214</v>
       </c>
       <c r="K25">
-        <v>6.467693075895227</v>
+        <v>0.3629796384113746</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>4.335175236879024</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.08291926647943271</v>
       </c>
       <c r="O25">
-        <v>0.9943657311846437</v>
+        <v>0.9508464015081586</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.9983087175095591</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_44/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2257149278224091</v>
+        <v>0.178129629618681</v>
       </c>
       <c r="D2">
-        <v>0.08866758093423499</v>
+        <v>0.09363067344209242</v>
       </c>
       <c r="E2">
-        <v>0.09107649766932724</v>
+        <v>0.08493745073407233</v>
       </c>
       <c r="F2">
-        <v>0.3495416763153685</v>
+        <v>0.3219537840309314</v>
       </c>
       <c r="G2">
-        <v>0.2497496473636076</v>
+        <v>0.2071290702391408</v>
       </c>
       <c r="H2">
-        <v>0.0004552056928219805</v>
+        <v>0.0003539105823279209</v>
       </c>
       <c r="I2">
-        <v>0.0006474163135958833</v>
+        <v>0.0008969370672708976</v>
       </c>
       <c r="J2">
-        <v>0.2497257491765339</v>
+        <v>0.2687299997770651</v>
       </c>
       <c r="K2">
-        <v>0.355313586970972</v>
+        <v>0.3153238954736288</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1683679626915655</v>
       </c>
       <c r="M2">
-        <v>3.653172380996352</v>
+        <v>0.07903872023491587</v>
       </c>
       <c r="N2">
-        <v>0.07746332750760487</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.8012467611278637</v>
+        <v>3.665254983842772</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.08380419127288619</v>
       </c>
       <c r="Q2">
-        <v>1.000575111027032</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.7889212005019104</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.915716939713036</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2070840548839925</v>
+        <v>0.1648778509222097</v>
       </c>
       <c r="D3">
-        <v>0.07895538069117691</v>
+        <v>0.08275087286295246</v>
       </c>
       <c r="E3">
-        <v>0.0852074022650342</v>
+        <v>0.08001072662785802</v>
       </c>
       <c r="F3">
-        <v>0.3378274009545308</v>
+        <v>0.3138138672659352</v>
       </c>
       <c r="G3">
-        <v>0.246486420553893</v>
+        <v>0.207403442907605</v>
       </c>
       <c r="H3">
-        <v>0.001133838760216888</v>
+        <v>0.0009097673230517023</v>
       </c>
       <c r="I3">
-        <v>0.0004173991181399828</v>
+        <v>0.0005559847370197879</v>
       </c>
       <c r="J3">
-        <v>0.2531247234969953</v>
+        <v>0.2713837767436758</v>
       </c>
       <c r="K3">
-        <v>0.3484390896887248</v>
+        <v>0.3124695272447866</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1721039609209569</v>
       </c>
       <c r="M3">
-        <v>3.190653229408554</v>
+        <v>0.07425475736956422</v>
       </c>
       <c r="N3">
-        <v>0.07396027051734677</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.6987176717183559</v>
+        <v>3.201907530866436</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.08036415762433791</v>
       </c>
       <c r="Q3">
-        <v>1.000472083589784</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.6888183565040222</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.9246145413390536</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1954184847772922</v>
+        <v>0.156478599465828</v>
       </c>
       <c r="D4">
-        <v>0.07299428345645964</v>
+        <v>0.07608798993463495</v>
       </c>
       <c r="E4">
-        <v>0.08156633147513404</v>
+        <v>0.07694050279124554</v>
       </c>
       <c r="F4">
-        <v>0.3311620702169407</v>
+        <v>0.309244087009418</v>
       </c>
       <c r="G4">
-        <v>0.2449419565460431</v>
+        <v>0.2080341492314162</v>
       </c>
       <c r="H4">
-        <v>0.001723954735734501</v>
+        <v>0.0013976560665101</v>
       </c>
       <c r="I4">
-        <v>0.0004843799022697937</v>
+        <v>0.0005151506529448291</v>
       </c>
       <c r="J4">
-        <v>0.2555221008016204</v>
+        <v>0.2731597868504494</v>
       </c>
       <c r="K4">
-        <v>0.3444808553867773</v>
+        <v>0.3108685121912949</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1744266988701675</v>
       </c>
       <c r="M4">
-        <v>2.906111517216885</v>
+        <v>0.07191031839824014</v>
       </c>
       <c r="N4">
-        <v>0.07181834580462976</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.6356039326461769</v>
+        <v>2.916820089321362</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.07828258789419351</v>
       </c>
       <c r="Q4">
-        <v>1.002024530138328</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.6271439030401993</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.931397718988606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.190128944758456</v>
+        <v>0.1525745700448198</v>
       </c>
       <c r="D5">
-        <v>0.07063376820779155</v>
+        <v>0.07344616371657509</v>
       </c>
       <c r="E5">
-        <v>0.08000440473430004</v>
+        <v>0.07561367613569914</v>
       </c>
       <c r="F5">
-        <v>0.328232491427066</v>
+        <v>0.307165708438621</v>
       </c>
       <c r="G5">
-        <v>0.2441075287283425</v>
+        <v>0.2081174197894384</v>
       </c>
       <c r="H5">
-        <v>0.002008047038265071</v>
+        <v>0.001633391136428242</v>
       </c>
       <c r="I5">
-        <v>0.0006285456094103914</v>
+        <v>0.0006179451378507395</v>
       </c>
       <c r="J5">
-        <v>0.256409631871918</v>
+        <v>0.2737589497819926</v>
       </c>
       <c r="K5">
-        <v>0.3424927819093853</v>
+        <v>0.3098551243970746</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.17518452372056</v>
       </c>
       <c r="M5">
-        <v>2.790115130832021</v>
+        <v>0.07099814209075106</v>
       </c>
       <c r="N5">
-        <v>0.07097777270088201</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.6096782899800104</v>
+        <v>2.800593045138754</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.07747314443689746</v>
       </c>
       <c r="Q5">
-        <v>1.002032944574879</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.6017970180392993</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.9335480199557793</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1886624287643741</v>
+        <v>0.1514162741195832</v>
       </c>
       <c r="D6">
-        <v>0.07032597846195188</v>
+        <v>0.07309300227823456</v>
       </c>
       <c r="E6">
-        <v>0.07966075598962519</v>
+        <v>0.07531428549282637</v>
       </c>
       <c r="F6">
-        <v>0.3273381947876075</v>
+        <v>0.3064374343617509</v>
       </c>
       <c r="G6">
-        <v>0.2435907953944891</v>
+        <v>0.2077910562999463</v>
       </c>
       <c r="H6">
-        <v>0.002060248044843727</v>
+        <v>0.001676825584212449</v>
       </c>
       <c r="I6">
-        <v>0.0007447476487758564</v>
+        <v>0.0007429335996631536</v>
       </c>
       <c r="J6">
-        <v>0.2563599037861692</v>
+        <v>0.2736646828362268</v>
       </c>
       <c r="K6">
-        <v>0.3416310625589745</v>
+        <v>0.3092043103288233</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1750723545391892</v>
       </c>
       <c r="M6">
-        <v>2.770978103086776</v>
+        <v>0.07072724050446944</v>
       </c>
       <c r="N6">
-        <v>0.0708758171235111</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.6051712818643793</v>
+        <v>2.781415825100908</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.07737803751152939</v>
       </c>
       <c r="Q6">
-        <v>1.000819353615611</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.5973906146771526</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.9327865304892242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.193744761024476</v>
+        <v>0.1551949390649554</v>
       </c>
       <c r="D7">
-        <v>0.07319319873338515</v>
+        <v>0.07642830272154555</v>
       </c>
       <c r="E7">
-        <v>0.08131666088733525</v>
+        <v>0.07672147212518077</v>
       </c>
       <c r="F7">
-        <v>0.329987807774522</v>
+        <v>0.3075208878474811</v>
       </c>
       <c r="G7">
-        <v>0.2438800116188773</v>
+        <v>0.208882631257211</v>
       </c>
       <c r="H7">
-        <v>0.001733888880957601</v>
+        <v>0.001408083167972585</v>
       </c>
       <c r="I7">
-        <v>0.0007141449779668463</v>
+        <v>0.000786452717609798</v>
       </c>
       <c r="J7">
-        <v>0.2549843708762793</v>
+        <v>0.2698082037975453</v>
       </c>
       <c r="K7">
-        <v>0.3429911174644289</v>
+        <v>0.309058908250524</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1735762330673047</v>
       </c>
       <c r="M7">
-        <v>2.904913601749115</v>
+        <v>0.0713995243046579</v>
       </c>
       <c r="N7">
-        <v>0.07191010411218102</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.6347078737717453</v>
+        <v>2.915500266277292</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.07834827534991007</v>
       </c>
       <c r="Q7">
-        <v>0.9986450692150015</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.6263306167944478</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.9264898580815242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2172021461785789</v>
+        <v>0.1722992339158083</v>
       </c>
       <c r="D8">
-        <v>0.08562711980479065</v>
+        <v>0.09066930136702211</v>
       </c>
       <c r="E8">
-        <v>0.08875791877042616</v>
+        <v>0.0830113566596733</v>
       </c>
       <c r="F8">
-        <v>0.3438897913961938</v>
+        <v>0.3155697748828246</v>
       </c>
       <c r="G8">
-        <v>0.2471394868738486</v>
+        <v>0.211893100567238</v>
       </c>
       <c r="H8">
-        <v>0.0006567584279096872</v>
+        <v>0.0005218892480339798</v>
       </c>
       <c r="I8">
-        <v>0.000793093364436892</v>
+        <v>0.001063234135457058</v>
       </c>
       <c r="J8">
-        <v>0.2501107638349467</v>
+        <v>0.2598257975346314</v>
       </c>
       <c r="K8">
-        <v>0.3509529430209568</v>
+        <v>0.3110223353123516</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1682020900238257</v>
       </c>
       <c r="M8">
-        <v>3.494288810152682</v>
+        <v>0.07622873736015556</v>
       </c>
       <c r="N8">
-        <v>0.07639273861423135</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.7651938064563595</v>
+        <v>3.505709006439872</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.08265918763661873</v>
       </c>
       <c r="Q8">
-        <v>0.995743948890734</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.7539363521103226</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.9084303621746983</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2642974907456335</v>
+        <v>0.20567485856985</v>
       </c>
       <c r="D9">
-        <v>0.1096362817197729</v>
+        <v>0.1178191514918296</v>
       </c>
       <c r="E9">
-        <v>0.1034766665851663</v>
+        <v>0.09533079889311935</v>
       </c>
       <c r="F9">
-        <v>0.3776598675902534</v>
+        <v>0.3391824724705117</v>
       </c>
       <c r="G9">
-        <v>0.2593154808520524</v>
+        <v>0.2168162710715862</v>
       </c>
       <c r="H9">
-        <v>1.423922751486728E-05</v>
+        <v>1.744814726878374E-05</v>
       </c>
       <c r="I9">
-        <v>0.002382174219009769</v>
+        <v>0.002628188708319712</v>
       </c>
       <c r="J9">
-        <v>0.2441053809134601</v>
+        <v>0.2522616474127162</v>
       </c>
       <c r="K9">
-        <v>0.3714035444321837</v>
+        <v>0.3202261333215866</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1597350248980263</v>
       </c>
       <c r="M9">
-        <v>4.645725754268597</v>
+        <v>0.09169640348123664</v>
       </c>
       <c r="N9">
-        <v>0.08508947946478784</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.020961769491151</v>
+        <v>4.65879172775243</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.09129254586623148</v>
       </c>
       <c r="Q9">
-        <v>1.009695517301608</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.003374674887816</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.8962759274847798</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2917887443540934</v>
+        <v>0.2254833196823967</v>
       </c>
       <c r="D10">
-        <v>0.1286571844655242</v>
+        <v>0.1400518902709962</v>
       </c>
       <c r="E10">
-        <v>0.1096493505572589</v>
+        <v>0.1001795481906669</v>
       </c>
       <c r="F10">
-        <v>0.3995024663017261</v>
+        <v>0.3503324102958985</v>
       </c>
       <c r="G10">
-        <v>0.2653994493283918</v>
+        <v>0.2293728687553553</v>
       </c>
       <c r="H10">
-        <v>0.0007129304502648814</v>
+        <v>0.0006532805380663476</v>
       </c>
       <c r="I10">
-        <v>0.004859782345102204</v>
+        <v>0.004854589162330392</v>
       </c>
       <c r="J10">
-        <v>0.2385382230371249</v>
+        <v>0.2308984916037033</v>
       </c>
       <c r="K10">
-        <v>0.3809547892015601</v>
+        <v>0.3197275465788252</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1507771218848362</v>
       </c>
       <c r="M10">
-        <v>5.500300835559301</v>
+        <v>0.1027479462885559</v>
       </c>
       <c r="N10">
-        <v>0.08652489190086499</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.196455247431487</v>
+        <v>5.513346809610994</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.09225551744357929</v>
       </c>
       <c r="Q10">
-        <v>1.011421431278322</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.174649005987689</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.8702405140966079</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2584862369419199</v>
+        <v>0.2031067219646303</v>
       </c>
       <c r="D11">
-        <v>0.1486547036362111</v>
+        <v>0.1626726960221987</v>
       </c>
       <c r="E11">
-        <v>0.07987406537401576</v>
+        <v>0.07308568284894257</v>
       </c>
       <c r="F11">
-        <v>0.3611294907674463</v>
+        <v>0.3093681972486877</v>
       </c>
       <c r="G11">
-        <v>0.2247540356533122</v>
+        <v>0.2158378702148269</v>
       </c>
       <c r="H11">
-        <v>0.01927075878037598</v>
+        <v>0.01918443164163364</v>
       </c>
       <c r="I11">
-        <v>0.006158966327631354</v>
+        <v>0.006109701678126633</v>
       </c>
       <c r="J11">
-        <v>0.2136336510936303</v>
+        <v>0.1888497967444067</v>
       </c>
       <c r="K11">
-        <v>0.331001751086287</v>
+        <v>0.2732726562289862</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1310231187326387</v>
       </c>
       <c r="M11">
-        <v>5.974887455184216</v>
+        <v>0.08896513609768775</v>
       </c>
       <c r="N11">
-        <v>0.05588291305220849</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.173622076396953</v>
+        <v>5.985366386428439</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.05824102469649795</v>
       </c>
       <c r="Q11">
-        <v>0.873297830896675</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.153783631566341</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.7320998270334513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2295902170429542</v>
+        <v>0.1832995053867421</v>
       </c>
       <c r="D12">
-        <v>0.1618565366327971</v>
+        <v>0.1768484376426045</v>
       </c>
       <c r="E12">
-        <v>0.06144798038215527</v>
+        <v>0.0567825818295713</v>
       </c>
       <c r="F12">
-        <v>0.3267853581913016</v>
+        <v>0.2773865476339239</v>
       </c>
       <c r="G12">
-        <v>0.1928307904985758</v>
+        <v>0.196485080883015</v>
       </c>
       <c r="H12">
-        <v>0.05785886203192092</v>
+        <v>0.05777443507340507</v>
       </c>
       <c r="I12">
-        <v>0.006327493628308645</v>
+        <v>0.006241080533602172</v>
       </c>
       <c r="J12">
-        <v>0.1954627698233082</v>
+        <v>0.171479765923678</v>
       </c>
       <c r="K12">
-        <v>0.2916624619136954</v>
+        <v>0.2403290871648984</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1188034659009762</v>
       </c>
       <c r="M12">
-        <v>6.197974661444846</v>
+        <v>0.07694829399608238</v>
       </c>
       <c r="N12">
-        <v>0.04712695835512237</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.118141024852392</v>
+        <v>6.206601135094502</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.04721426266133677</v>
       </c>
       <c r="Q12">
-        <v>0.7676382004941473</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.100586169129421</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.6387543599986003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2000394719712517</v>
+        <v>0.1620782099562135</v>
       </c>
       <c r="D13">
-        <v>0.1708214146644309</v>
+        <v>0.1849880912022286</v>
       </c>
       <c r="E13">
-        <v>0.05028295989687948</v>
+        <v>0.0474548417483458</v>
       </c>
       <c r="F13">
-        <v>0.2915958829471919</v>
+        <v>0.2494868663497272</v>
       </c>
       <c r="G13">
-        <v>0.1639345240070966</v>
+        <v>0.1666106247630239</v>
       </c>
       <c r="H13">
-        <v>0.1134469033021048</v>
+        <v>0.1133862257991041</v>
       </c>
       <c r="I13">
-        <v>0.005917311315758234</v>
+        <v>0.005890372688861945</v>
       </c>
       <c r="J13">
-        <v>0.1804330305931146</v>
+        <v>0.1669985542592762</v>
       </c>
       <c r="K13">
-        <v>0.2558545012716387</v>
+        <v>0.2140025522359323</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1103285587540341</v>
       </c>
       <c r="M13">
-        <v>6.238748658113764</v>
+        <v>0.06536438946350387</v>
       </c>
       <c r="N13">
-        <v>0.05450326413784623</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.03388089555559</v>
+        <v>6.246312765620871</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.0530136211160368</v>
       </c>
       <c r="Q13">
-        <v>0.6748775058133276</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>1.018828025616877</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.5700207663060297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1792329576934719</v>
+        <v>0.1467458780680317</v>
       </c>
       <c r="D14">
-        <v>0.1752719138661831</v>
+        <v>0.1880063160878933</v>
       </c>
       <c r="E14">
-        <v>0.0467706951974628</v>
+        <v>0.0450720044043349</v>
       </c>
       <c r="F14">
-        <v>0.2666372978860352</v>
+        <v>0.2314278500475453</v>
       </c>
       <c r="G14">
-        <v>0.1452798276932157</v>
+        <v>0.1426181818861991</v>
       </c>
       <c r="H14">
-        <v>0.1626614299744489</v>
+        <v>0.1626220207754017</v>
       </c>
       <c r="I14">
-        <v>0.005462841029908461</v>
+        <v>0.005529817129745318</v>
       </c>
       <c r="J14">
-        <v>0.1713953365981453</v>
+        <v>0.1677404042140136</v>
       </c>
       <c r="K14">
-        <v>0.2326017168223942</v>
+        <v>0.1982719566236746</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1057665260561205</v>
       </c>
       <c r="M14">
-        <v>6.184606374416546</v>
+        <v>0.0575613192767932</v>
       </c>
       <c r="N14">
-        <v>0.0690549280547863</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.9623189242995167</v>
+        <v>6.191761737822731</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.06679635778199611</v>
       </c>
       <c r="Q14">
-        <v>0.6163402949694046</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.9490942740327597</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.5318559765351054</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1733635973989607</v>
+        <v>0.1422508177535704</v>
       </c>
       <c r="D15">
-        <v>0.1754495012955886</v>
+        <v>0.1874773744609257</v>
       </c>
       <c r="E15">
-        <v>0.04646289639401835</v>
+        <v>0.0450301033951872</v>
       </c>
       <c r="F15">
-        <v>0.2599448480995008</v>
+        <v>0.2272471773859976</v>
       </c>
       <c r="G15">
-        <v>0.1408621435649593</v>
+        <v>0.1351640615886396</v>
       </c>
       <c r="H15">
-        <v>0.1751122977365895</v>
+        <v>0.1750814749938172</v>
       </c>
       <c r="I15">
-        <v>0.005335457064250981</v>
+        <v>0.005465679522244749</v>
       </c>
       <c r="J15">
-        <v>0.1696143622183186</v>
+        <v>0.16955002115421</v>
       </c>
       <c r="K15">
-        <v>0.2270160892329365</v>
+        <v>0.195026269104229</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1050428141307584</v>
       </c>
       <c r="M15">
-        <v>6.132012543093879</v>
+        <v>0.05554767858812504</v>
       </c>
       <c r="N15">
-        <v>0.07361623693926589</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.9387284900080388</v>
+        <v>6.139232824141288</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.07126166774328979</v>
       </c>
       <c r="Q15">
-        <v>0.6032081889502905</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.9260120184576195</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.5254640707221725</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1676378674076915</v>
+        <v>0.1368338214423517</v>
       </c>
       <c r="D16">
-        <v>0.1652200903864838</v>
+        <v>0.1743118874522622</v>
       </c>
       <c r="E16">
-        <v>0.04625810467229252</v>
+        <v>0.0448819345271545</v>
       </c>
       <c r="F16">
-        <v>0.2568738844313145</v>
+        <v>0.2312971319405719</v>
       </c>
       <c r="G16">
-        <v>0.1432785299395718</v>
+        <v>0.1232846735682216</v>
       </c>
       <c r="H16">
-        <v>0.1620926401867848</v>
+        <v>0.1620889803875372</v>
       </c>
       <c r="I16">
-        <v>0.004377444560023314</v>
+        <v>0.004687159350695858</v>
       </c>
       <c r="J16">
-        <v>0.1744711151163827</v>
+        <v>0.1873731516528032</v>
       </c>
       <c r="K16">
-        <v>0.2295668653329699</v>
+        <v>0.2020152943248696</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1094213386988034</v>
       </c>
       <c r="M16">
-        <v>5.752269136079235</v>
+        <v>0.05495712252560914</v>
       </c>
       <c r="N16">
-        <v>0.07101472590757396</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.882375348591161</v>
+        <v>5.760927717354264</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.06931414178343331</v>
       </c>
       <c r="Q16">
-        <v>0.6182970747910161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.8703316463116337</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.5562317119415923</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1738096800425524</v>
+        <v>0.1405690515173035</v>
       </c>
       <c r="D17">
-        <v>0.1550406508638389</v>
+        <v>0.1630197768752168</v>
       </c>
       <c r="E17">
-        <v>0.04722617011495656</v>
+        <v>0.04530851332723995</v>
       </c>
       <c r="F17">
-        <v>0.2677208517700151</v>
+        <v>0.2435517690211029</v>
       </c>
       <c r="G17">
-        <v>0.154896506953456</v>
+        <v>0.1277855507290866</v>
       </c>
       <c r="H17">
-        <v>0.1241842385269933</v>
+        <v>0.1241842394120027</v>
       </c>
       <c r="I17">
-        <v>0.003933602092608623</v>
+        <v>0.004322226330608636</v>
       </c>
       <c r="J17">
-        <v>0.1829733560263946</v>
+        <v>0.2016958056364224</v>
       </c>
       <c r="K17">
-        <v>0.2435744461426879</v>
+        <v>0.215485601531288</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1154941523425297</v>
       </c>
       <c r="M17">
-        <v>5.490743636321838</v>
+        <v>0.05827237240897176</v>
       </c>
       <c r="N17">
-        <v>0.05988604526304897</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.8767463038111885</v>
+        <v>5.500501862911506</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.05909637016343439</v>
       </c>
       <c r="Q17">
-        <v>0.6606088965792765</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.8643589266511569</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.5996717930614324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1932449176410671</v>
+        <v>0.1541703119545446</v>
       </c>
       <c r="D18">
-        <v>0.1437858712158544</v>
+        <v>0.1516240657672938</v>
       </c>
       <c r="E18">
-        <v>0.05312980222130381</v>
+        <v>0.04994959747764405</v>
       </c>
       <c r="F18">
-        <v>0.2930709238549483</v>
+        <v>0.2665710126843877</v>
       </c>
       <c r="G18">
-        <v>0.1774495807302685</v>
+        <v>0.1443176083821243</v>
       </c>
       <c r="H18">
-        <v>0.07133731026560497</v>
+        <v>0.07133707079263019</v>
       </c>
       <c r="I18">
-        <v>0.003566833519128565</v>
+        <v>0.003929451127211436</v>
       </c>
       <c r="J18">
-        <v>0.1963595557220259</v>
+        <v>0.2163940533951063</v>
       </c>
       <c r="K18">
-        <v>0.2713111156215184</v>
+        <v>0.2387219535087084</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1247947722340488</v>
       </c>
       <c r="M18">
-        <v>5.301490846576144</v>
+        <v>0.06612666229262132</v>
       </c>
       <c r="N18">
-        <v>0.04864650065795217</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.9149041890415788</v>
+        <v>5.312433794572371</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.04924230546298514</v>
       </c>
       <c r="Q18">
-        <v>0.7363903296164267</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.9011044079699388</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.666260297806275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2219037455027006</v>
+        <v>0.1743943110615476</v>
       </c>
       <c r="D19">
-        <v>0.1333707701052589</v>
+        <v>0.1416221481432416</v>
       </c>
       <c r="E19">
-        <v>0.06808325227218504</v>
+        <v>0.06293665494582612</v>
       </c>
       <c r="F19">
-        <v>0.3275986408583762</v>
+        <v>0.2962523110903277</v>
       </c>
       <c r="G19">
-        <v>0.2075670693628666</v>
+        <v>0.1683699047512661</v>
       </c>
       <c r="H19">
-        <v>0.02616628182249769</v>
+        <v>0.02616633637776289</v>
       </c>
       <c r="I19">
-        <v>0.003786818707948392</v>
+        <v>0.004158755935121938</v>
       </c>
       <c r="J19">
-        <v>0.2127379437454806</v>
+        <v>0.2311262096446782</v>
       </c>
       <c r="K19">
-        <v>0.3083502722513529</v>
+        <v>0.2683963163433596</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1360588637318259</v>
       </c>
       <c r="M19">
-        <v>5.185903828497942</v>
+        <v>0.07717174027917295</v>
       </c>
       <c r="N19">
-        <v>0.05043030312279217</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9856456882182982</v>
+        <v>5.198059404840706</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.05297319642970599</v>
       </c>
       <c r="Q19">
-        <v>0.8345265989855193</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.9695810342219744</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.7479086543788043</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2794111244613049</v>
+        <v>0.2155523177318059</v>
       </c>
       <c r="D20">
-        <v>0.1244556766929463</v>
+        <v>0.1344745297040362</v>
       </c>
       <c r="E20">
-        <v>0.1071555220994682</v>
+        <v>0.09805568251231378</v>
       </c>
       <c r="F20">
-        <v>0.3897963011318595</v>
+        <v>0.3460495774832779</v>
       </c>
       <c r="G20">
-        <v>0.2601662424776023</v>
+        <v>0.2161106247005833</v>
       </c>
       <c r="H20">
-        <v>0.0004319793164042629</v>
+        <v>0.0004042078205483968</v>
       </c>
       <c r="I20">
-        <v>0.004807421182251304</v>
+        <v>0.005061333777373278</v>
       </c>
       <c r="J20">
-        <v>0.2381068122490717</v>
+        <v>0.2436850794303638</v>
       </c>
       <c r="K20">
-        <v>0.3735714300093917</v>
+        <v>0.3173076626757343</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.152166438904672</v>
       </c>
       <c r="M20">
-        <v>5.277473495933407</v>
+        <v>0.09871020736638059</v>
       </c>
       <c r="N20">
-        <v>0.08623897952285731</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.148159220673506</v>
+        <v>5.29097678616472</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.09219008304482301</v>
       </c>
       <c r="Q20">
-        <v>0.9992966894673145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.127338294890492</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.873170963016392</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.309231407836009</v>
+        <v>0.2398505842747198</v>
       </c>
       <c r="D21">
-        <v>0.1370844148907366</v>
+        <v>0.1526060341702902</v>
       </c>
       <c r="E21">
-        <v>0.1187617181973728</v>
+        <v>0.1083334603311208</v>
       </c>
       <c r="F21">
-        <v>0.4170560108475883</v>
+        <v>0.3517118338473395</v>
       </c>
       <c r="G21">
-        <v>0.2744342874772627</v>
+        <v>0.2717868542446453</v>
       </c>
       <c r="H21">
-        <v>0.001151714024531736</v>
+        <v>0.0009866131124488531</v>
       </c>
       <c r="I21">
-        <v>0.007082014560376493</v>
+        <v>0.006940200115441719</v>
       </c>
       <c r="J21">
-        <v>0.2388695555024611</v>
+        <v>0.1929117968590468</v>
       </c>
       <c r="K21">
-        <v>0.3921627423972041</v>
+        <v>0.3172232425308259</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1456273657714569</v>
       </c>
       <c r="M21">
-        <v>5.918256622851459</v>
+        <v>0.1078678391558512</v>
       </c>
       <c r="N21">
-        <v>0.0952385427643101</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.301232605930949</v>
+        <v>5.92957445216723</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.1009181945967725</v>
       </c>
       <c r="Q21">
-        <v>1.031507938985655</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.277609156293536</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.8454312184402966</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3280130516911299</v>
+        <v>0.2557582437358548</v>
       </c>
       <c r="D22">
-        <v>0.1456584527632572</v>
+        <v>0.1650831538851776</v>
       </c>
       <c r="E22">
-        <v>0.1244011212958149</v>
+        <v>0.1133220262758492</v>
       </c>
       <c r="F22">
-        <v>0.4342198827401731</v>
+        <v>0.3539200852708788</v>
       </c>
       <c r="G22">
-        <v>0.2831368969731898</v>
+        <v>0.3148277901275804</v>
       </c>
       <c r="H22">
-        <v>0.001917984766495295</v>
+        <v>0.001614813093777312</v>
       </c>
       <c r="I22">
-        <v>0.008555490981255964</v>
+        <v>0.008016172548825473</v>
       </c>
       <c r="J22">
-        <v>0.2390908242445278</v>
+        <v>0.167448722572745</v>
       </c>
       <c r="K22">
-        <v>0.4033481759780173</v>
+        <v>0.3157474235191238</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1409799244563708</v>
       </c>
       <c r="M22">
-        <v>6.341610002178015</v>
+        <v>0.1136014149332176</v>
       </c>
       <c r="N22">
-        <v>0.09838063121020113</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1.396081876927113</v>
+        <v>6.351149353073936</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.1036730190953108</v>
       </c>
       <c r="Q22">
-        <v>1.05065269542267</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.37084434578297</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.8234215657180499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.31992687949122</v>
+        <v>0.2484366936704561</v>
       </c>
       <c r="D23">
-        <v>0.1407943974011658</v>
+        <v>0.1576959163961362</v>
       </c>
       <c r="E23">
-        <v>0.1216622272496757</v>
+        <v>0.1108593651515299</v>
       </c>
       <c r="F23">
-        <v>0.4263208470494675</v>
+        <v>0.3554971758782344</v>
       </c>
       <c r="G23">
-        <v>0.2796533745200591</v>
+        <v>0.286913335722609</v>
       </c>
       <c r="H23">
-        <v>0.001491687506365302</v>
+        <v>0.001269137871225956</v>
       </c>
       <c r="I23">
-        <v>0.007480842567823665</v>
+        <v>0.007104285636837737</v>
       </c>
       <c r="J23">
-        <v>0.2395638602828924</v>
+        <v>0.1839596907703758</v>
       </c>
       <c r="K23">
-        <v>0.399056143852988</v>
+        <v>0.3191335000715334</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1443185780161791</v>
       </c>
       <c r="M23">
-        <v>6.115198679735556</v>
+        <v>0.1116085367440292</v>
       </c>
       <c r="N23">
-        <v>0.09656775839003728</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.346131971588036</v>
+        <v>6.125992579261322</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.1021271522604081</v>
       </c>
       <c r="Q23">
-        <v>1.044135478521866</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.321573982149417</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.8428233316754188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2859291656465786</v>
+        <v>0.2204776195404605</v>
       </c>
       <c r="D24">
-        <v>0.122869170774635</v>
+        <v>0.1328638336924826</v>
       </c>
       <c r="E24">
-        <v>0.1108331976096046</v>
+        <v>0.1014193498852691</v>
       </c>
       <c r="F24">
-        <v>0.3958032161965974</v>
+        <v>0.3513989139936342</v>
       </c>
       <c r="G24">
-        <v>0.2658541070287015</v>
+        <v>0.2206365658606799</v>
       </c>
       <c r="H24">
-        <v>0.0003427993866933488</v>
+        <v>0.0003133022946846253</v>
       </c>
       <c r="I24">
-        <v>0.004378658478087161</v>
+        <v>0.004529861624687825</v>
       </c>
       <c r="J24">
-        <v>0.2411428439283654</v>
+        <v>0.2466776116055271</v>
       </c>
       <c r="K24">
-        <v>0.3808657743140458</v>
+        <v>0.3233971901377686</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.154487339270883</v>
       </c>
       <c r="M24">
-        <v>5.258835802509736</v>
+        <v>0.1009668907141439</v>
       </c>
       <c r="N24">
-        <v>0.08996699754868587</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.155947276661948</v>
+        <v>5.2724577791152</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.09620192673145311</v>
       </c>
       <c r="Q24">
-        <v>1.017709313029371</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.134848146418733</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.8890588366719925</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2488211739206179</v>
+        <v>0.1942164083642268</v>
       </c>
       <c r="D25">
-        <v>0.1035610977593322</v>
+        <v>0.110681677217201</v>
       </c>
       <c r="E25">
-        <v>0.09911004807034729</v>
+        <v>0.09163315542774697</v>
       </c>
       <c r="F25">
-        <v>0.3659568801125275</v>
+        <v>0.331384152437785</v>
       </c>
       <c r="G25">
-        <v>0.253679679617079</v>
+        <v>0.2107273358619395</v>
       </c>
       <c r="H25">
-        <v>1.663190313139218E-05</v>
+        <v>9.042361765798645E-06</v>
       </c>
       <c r="I25">
-        <v>0.00212632938421109</v>
+        <v>0.002506593749591168</v>
       </c>
       <c r="J25">
-        <v>0.2444630603202214</v>
+        <v>0.2570850595024439</v>
       </c>
       <c r="K25">
-        <v>0.3629796384113746</v>
+        <v>0.3159354069507927</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1613421582155787</v>
       </c>
       <c r="M25">
-        <v>4.335175236879024</v>
+        <v>0.08640102075408507</v>
       </c>
       <c r="N25">
-        <v>0.08291926647943271</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9508464015081586</v>
+        <v>4.348018535746746</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.08917240284663563</v>
       </c>
       <c r="Q25">
-        <v>0.9983087175095591</v>
+        <v>0.9349679093101884</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.8954528472500698</v>
       </c>
     </row>
   </sheetData>
